--- a/Output/bases/georeferenciacion_hospitales.xlsx
+++ b/Output/bases/georeferenciacion_hospitales.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,17 +375,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>oc_lat</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>oc_lng</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>oc_formatted</t>
+          <t>lat</t>
         </is>
       </c>
     </row>
@@ -402,8 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hospital Municipal Boliviano Holandes</t>
-        </is>
+          <t>Hospital Municipal Boliviano Holandes, El Alto</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>-68.1488705</v>
+      </c>
+      <c r="E2">
+        <v>-16.5307131</v>
       </c>
     </row>
     <row r="3">
@@ -419,8 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hospital Municipal Boliviano Coreano</t>
-        </is>
+          <t>Hospital Municipal Boliviano Coreano, El Alto</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>-68.2081896</v>
+      </c>
+      <c r="E3">
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="4">
@@ -436,19 +443,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hospital Municipal Los Andes</t>
+          <t>Hospital Municipal Los Andes, El Alto</t>
         </is>
       </c>
       <c r="D4">
-        <v>-16.493774</v>
+        <v>-68.189347</v>
       </c>
       <c r="E4">
-        <v>-68.18820479999999</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hospital Municipal Los Andes, Calle Arturo Valle, El Alto, Bolivia</t>
-        </is>
+        <v>-16.4903749</v>
       </c>
     </row>
     <row r="5">
@@ -464,8 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hospital El Alto Norte</t>
-        </is>
+          <t>Hospital El Alto Norte, El Alto</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>-65.3638421</v>
+      </c>
+      <c r="E5">
+        <v>-28.3107502</v>
       </c>
     </row>
     <row r="6">
@@ -481,8 +489,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hospital El Alto Sur</t>
-        </is>
+          <t>Hospital El Alto Sur, El Alto</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-68.2232185</v>
+      </c>
+      <c r="E6">
+        <v>-16.5262187</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hospital De Clinicas</t>
+          <t>Hospital De Clinicas, La Paz</t>
         </is>
       </c>
       <c r="D7">
-        <v>-16.5070353</v>
+        <v>-68.11873469999999</v>
       </c>
       <c r="E7">
-        <v>-68.1186046</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Hospital de Clínicas, Avenida Bautista Saavedra, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5075419</v>
       </c>
     </row>
     <row r="8">
@@ -526,19 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hospital Del Niño</t>
+          <t>Hospital Del Niño, La Paz</t>
         </is>
       </c>
       <c r="D8">
-        <v>-17.3883207</v>
+        <v>-68.11845819999999</v>
       </c>
       <c r="E8">
-        <v>-66.1502709</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hospital del Niño Manuel Ascencio Villarroel, Avenida Oquendo, Cochabamba, Bolivia</t>
-        </is>
+        <v>-16.5085168</v>
       </c>
     </row>
     <row r="9">
@@ -554,8 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Instituto Nal. Del Torax</t>
-        </is>
+          <t>Instituto Nal. Del Torax, La Paz</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E9">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="10">
@@ -571,8 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hosp. Boliviano Holandes</t>
-        </is>
+          <t>Hosp. Boliviano Holandes, El Alto</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>-68.15365349999999</v>
+      </c>
+      <c r="E10">
+        <v>-16.5223891</v>
       </c>
     </row>
     <row r="11">
@@ -588,19 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hospital  Juan Xxiii</t>
+          <t>Hospital  Juan Xxiii, La Paz</t>
         </is>
       </c>
       <c r="D11">
-        <v>-16.4874912</v>
+        <v>-68.1574148</v>
       </c>
       <c r="E11">
-        <v>-68.1578198</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Hospital Juan XXIII, Calle Calasasaya, La Paz, Bolivia</t>
-        </is>
+        <v>-16.48756</v>
       </c>
     </row>
     <row r="12">
@@ -616,8 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Instituto Nal. De Oftalmologia</t>
-        </is>
+          <t>Instituto Nal. De Oftalmologia, La Paz</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E12">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="13">
@@ -633,19 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>Hospital La Paz, La Paz</t>
         </is>
       </c>
       <c r="D13">
-        <v>-16.4960203</v>
+        <v>-3.6873969</v>
       </c>
       <c r="E13">
-        <v>-68.14584739999999</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Hospital La Paz, Calle Nataniel Aguirre, La Paz, Bolivia</t>
-        </is>
+        <v>40.4811625</v>
       </c>
     </row>
     <row r="14">
@@ -661,19 +673,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hospital La Merced</t>
+          <t>Hospital La Merced, La Paz</t>
         </is>
       </c>
       <c r="D14">
-        <v>-16.471041</v>
+        <v>-68.117706</v>
       </c>
       <c r="E14">
-        <v>-68.117817</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Hospital La Merced, Calle Villa Aspiazu, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4710389</v>
       </c>
     </row>
     <row r="15">
@@ -689,19 +696,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Clinica Fides</t>
+          <t>Clinica Fides, El Alto</t>
         </is>
       </c>
       <c r="D15">
-        <v>-16.4910207</v>
+        <v>-68.17686069999999</v>
       </c>
       <c r="E15">
-        <v>-68.1770171</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Clínica Solidaria FIDES, Avenida René Vargas, El Alto, Bolivia</t>
-        </is>
+        <v>-16.4908836</v>
       </c>
     </row>
     <row r="16">
@@ -717,8 +719,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kardiosernirum</t>
-        </is>
+          <t>Kardiosernirum, La Paz</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E16">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="17">
@@ -734,19 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hospital Materno Infantil</t>
+          <t>Hospital Materno Infantil, La Paz</t>
         </is>
       </c>
       <c r="D17">
-        <v>-14.8221306</v>
+        <v>-68.1174614</v>
       </c>
       <c r="E17">
-        <v>-64.8959969</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Hospital Materno Infantil, Avenida Japón, Trinidad, Bolivia</t>
-        </is>
+        <v>-16.502055</v>
       </c>
     </row>
     <row r="18">
@@ -762,8 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hospital Caja  Petrolera De Salud</t>
-        </is>
+          <t>Hospital Caja  Petrolera De Salud, La Paz</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>-68.1321923</v>
+      </c>
+      <c r="E18">
+        <v>-16.4978873</v>
       </c>
     </row>
     <row r="19">
@@ -779,19 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hospital Los Pinos</t>
+          <t>Hospital Los Pinos, La Paz</t>
         </is>
       </c>
       <c r="D19">
-        <v>-16.5422605</v>
+        <v>-68.0716875</v>
       </c>
       <c r="E19">
-        <v>-68.0717181</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Hospital Municipal Los Pinos, Calle 25, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5424375</v>
       </c>
     </row>
     <row r="20">
@@ -807,19 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hospital Militar Cossmil</t>
+          <t>Hospital Militar Cossmil, La Paz</t>
         </is>
       </c>
       <c r="D20">
-        <v>-17.3790275</v>
+        <v>-68.12027259999999</v>
       </c>
       <c r="E20">
-        <v>-66.14494139999999</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Hospital Corporación de Seguro Social Militar 1, Avenida Ramón Rivero, Cochabamba, Bolivia</t>
-        </is>
+        <v>-16.5051196</v>
       </c>
     </row>
     <row r="21">
@@ -835,19 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Clinica Rengel</t>
+          <t>Clinica Rengel, La Paz</t>
         </is>
       </c>
       <c r="D21">
-        <v>-16.5152294</v>
+        <v>-68.12884149999999</v>
       </c>
       <c r="E21">
-        <v>-68.1288658</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Clinica Rengel, Avenida Victor Sanjines 2762, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5151272</v>
       </c>
     </row>
     <row r="22">
@@ -863,8 +857,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Medimax</t>
-        </is>
+          <t>Medimax, La Paz</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E22">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="23">
@@ -880,8 +880,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hospital Gral. Nro 1 (Obrero)</t>
-        </is>
+          <t>Hospital Gral. Nro 1 (Obrero), La Paz</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E23">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="24">
@@ -897,8 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Medicasur</t>
-        </is>
+          <t>Medicasur, La Paz</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E24">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="25">
@@ -914,8 +926,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hospital De La Caja De Caminos Regional La Paz</t>
-        </is>
+          <t>Hospital De La Caja De Caminos Regional La Paz, La Paz</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>-68.1275483</v>
+      </c>
+      <c r="E25">
+        <v>-16.5087733</v>
       </c>
     </row>
     <row r="26">
@@ -931,19 +949,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hospital Metodista</t>
+          <t>Hospital Metodista, La Paz</t>
         </is>
       </c>
       <c r="D26">
-        <v>-16.5270125</v>
+        <v>-68.1044383</v>
       </c>
       <c r="E26">
-        <v>-68.10445559999999</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Hospital Metodista, Calle 13 - Moises Alcazar Iturri, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5271202</v>
       </c>
     </row>
     <row r="27">
@@ -959,19 +972,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hospital Corazon De Jesus</t>
+          <t>Hospital Corazon De Jesus, El Alto</t>
         </is>
       </c>
       <c r="D27">
-        <v>-16.5571182</v>
+        <v>-68.1928951</v>
       </c>
       <c r="E27">
-        <v>-68.192842</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Hospital Corazón de Jesús, Calle 3, El Alto, Bolivia</t>
-        </is>
+        <v>-16.5572632</v>
       </c>
     </row>
     <row r="28">
@@ -987,19 +995,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiahuanacu</t>
+          <t>Tiahuanacu, Tiahuanacu</t>
         </is>
       </c>
       <c r="D28">
-        <v>-16.553565</v>
+        <v>-68.67823589999999</v>
       </c>
       <c r="E28">
-        <v>-68.6696196</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Tiahuanacu, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.5542097</v>
       </c>
     </row>
     <row r="29">
@@ -1015,8 +1018,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Clinica C.i.e.s. La Paz</t>
-        </is>
+          <t>Clinica C.i.e.s. La Paz, La Paz</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>-68.1370596</v>
+      </c>
+      <c r="E29">
+        <v>-16.5037391</v>
       </c>
     </row>
     <row r="30">
@@ -1032,8 +1041,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ceja El Alto - Cra</t>
-        </is>
+          <t>Ceja El Alto - Cra, El Alto</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>-68.202034</v>
+      </c>
+      <c r="E30">
+        <v>-16.5247274</v>
       </c>
     </row>
     <row r="31">
@@ -1049,19 +1064,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hospital Arco Iris</t>
+          <t>Hospital Arco Iris, La Paz</t>
         </is>
       </c>
       <c r="D31">
-        <v>-16.4841621</v>
+        <v>-68.1202571</v>
       </c>
       <c r="E31">
-        <v>-68.1203995</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Hospital Arco Iris, Avenida 15 de Abril 40, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4842202</v>
       </c>
     </row>
     <row r="32">
@@ -1077,19 +1087,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Instituto De Gastroenterologia</t>
+          <t>Instituto De Gastroenterologia, La Paz</t>
         </is>
       </c>
       <c r="D32">
-        <v>-19.0453277</v>
+        <v>-68.1182871</v>
       </c>
       <c r="E32">
-        <v>-65.2674658</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Instituto de Gastroenterologia Boliviano Japones, Calle Colón, Sucre, Bolivia</t>
-        </is>
+        <v>-16.5075601</v>
       </c>
     </row>
     <row r="33">
@@ -1105,19 +1110,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hospital De La Mujer</t>
+          <t>Hospital De La Mujer, La Paz</t>
         </is>
       </c>
       <c r="D33">
-        <v>-16.508331</v>
+        <v>-68.1190141</v>
       </c>
       <c r="E33">
-        <v>-68.1186455</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Hospital de la Mujer, Avenida Bautista Saavedra, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5083552</v>
       </c>
     </row>
     <row r="34">
@@ -1133,8 +1133,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Clinica Medica Sur-Tomocentro S.r.l</t>
-        </is>
+          <t>Clinica Medica Sur-Tomocentro S.r.l, El Alto</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>-68.1671303</v>
+      </c>
+      <c r="E34">
+        <v>-16.5107011</v>
       </c>
     </row>
     <row r="35">
@@ -1150,19 +1156,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Medicentro</t>
+          <t>Medicentro, La Paz</t>
         </is>
       </c>
       <c r="D35">
-        <v>-11.9409643</v>
+        <v>-68.12585020000002</v>
       </c>
       <c r="E35">
-        <v>-67.1318196</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Medicentro, Canton Bolivar, Municipio Sena, Provincia de Madre de Dios, Bolivia</t>
-        </is>
+        <v>-16.509557</v>
       </c>
     </row>
     <row r="36">
@@ -1178,8 +1179,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Caja Bancaria Estatal De Salud - Clinica Modelo La Paz"</t>
-        </is>
+          <t>Caja Bancaria Estatal De Salud - Clinica Modelo La Paz", La Paz</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>-68.1236485</v>
+      </c>
+      <c r="E36">
+        <v>-16.4971729</v>
       </c>
     </row>
     <row r="37">
@@ -1195,8 +1202,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Programa De Salud Renal</t>
-        </is>
+          <t>Programa De Salud Renal, La Paz</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>-68.13400059999999</v>
+      </c>
+      <c r="E37">
+        <v>-16.5113951</v>
       </c>
     </row>
     <row r="38">
@@ -1212,8 +1225,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hospital Villa Dolores</t>
-        </is>
+          <t>Hospital Villa Dolores, El Alto</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>-68.1563661</v>
+      </c>
+      <c r="E38">
+        <v>-16.5163826</v>
       </c>
     </row>
     <row r="39">
@@ -1229,8 +1248,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cervitac</t>
-        </is>
+          <t>Cervitac, La Paz</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E39">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="40">
@@ -1246,8 +1271,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cardiocenter</t>
-        </is>
+          <t>Cardiocenter, La Paz</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E40">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="41">
@@ -1263,19 +1294,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cies El Alto</t>
+          <t>Cies El Alto, El Alto</t>
         </is>
       </c>
       <c r="D41">
-        <v>-16.509872</v>
+        <v>-68.19004269999999</v>
       </c>
       <c r="E41">
-        <v>-68.1641003</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>CIES El Alto, Calle 5, El Alto, Bolivia</t>
-        </is>
+        <v>-16.5348756</v>
       </c>
     </row>
     <row r="42">
@@ -1291,8 +1317,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Central De Emergencias Nueva Esperanza S.a. Hospital Agramont M.r.</t>
-        </is>
+          <t>Central De Emergencias Nueva Esperanza S.a. Hospital Agramont M.r., El Alto</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>-68.2081896</v>
+      </c>
+      <c r="E42">
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="43">
@@ -1308,8 +1340,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hospital General L.u.o</t>
-        </is>
+          <t>Hospital General L.u.o, La Paz</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E43">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="44">
@@ -1325,19 +1363,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hospital Del Norte</t>
+          <t>Hospital Del Norte, El Alto</t>
         </is>
       </c>
       <c r="D44">
-        <v>-16.4894992</v>
+        <v>-68.2044384</v>
       </c>
       <c r="E44">
-        <v>-68.2043425</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Hospital Del Norte, Avenida Juan Pablo II, El Alto, Bolivia</t>
-        </is>
+        <v>-16.4894082</v>
       </c>
     </row>
     <row r="45">
@@ -1353,8 +1386,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hospital Republica Islamica De Iran</t>
-        </is>
+          <t>Hospital Republica Islamica De Iran, El Alto</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>-68.2081896</v>
+      </c>
+      <c r="E45">
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="46">
@@ -1370,19 +1409,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La Portada</t>
+          <t>La Portada, La Paz</t>
         </is>
       </c>
       <c r="D46">
-        <v>-16.4896913</v>
+        <v>-68.1657426</v>
       </c>
       <c r="E46">
-        <v>-68.16552969999999</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Max Paredes, La Paz, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4892073</v>
       </c>
     </row>
     <row r="47">
@@ -1398,19 +1432,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Santa Maria De Los Angeles</t>
+          <t>Santa Maria De Los Angeles, El Alto</t>
         </is>
       </c>
       <c r="D47">
-        <v>-20.0335145</v>
+        <v>-68.1773513</v>
       </c>
       <c r="E47">
-        <v>-63.5238917</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Santa María de los Ángeles, Avenida San Francisco, Camiri, Bolivia</t>
-        </is>
+        <v>-16.4948088</v>
       </c>
     </row>
     <row r="48">
@@ -1426,19 +1455,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Policlinico  El Alto</t>
+          <t>Policlinico  El Alto, El Alto</t>
         </is>
       </c>
       <c r="D48">
-        <v>-16.524011</v>
+        <v>-68.15214709999999</v>
       </c>
       <c r="E48">
-        <v>-68.2109705</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Policlínico Villa Adela, Calle C, El Alto, Bolivia</t>
-        </is>
+        <v>-16.5289014</v>
       </c>
     </row>
     <row r="49">
@@ -1454,19 +1478,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Obrajes</t>
+          <t>Obrajes, La Paz</t>
         </is>
       </c>
       <c r="D49">
-        <v>-16.5271896</v>
+        <v>-68.10289829999999</v>
       </c>
       <c r="E49">
-        <v>-68.1083701</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Obrajes, La Paz, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.528245</v>
       </c>
     </row>
     <row r="50">
@@ -1482,19 +1501,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Policlinico De Especialidades</t>
+          <t>Policlinico De Especialidades, El Alto</t>
         </is>
       </c>
       <c r="D50">
-        <v>-17.3767851</v>
+        <v>-68.2081896</v>
       </c>
       <c r="E50">
-        <v>-66.1537062</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Policlínico de Atención Integral en Salud de Especialidades, Avenida Potosí 1326, Cochabamba, Bolivia</t>
-        </is>
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="51">
@@ -1510,8 +1524,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pol. Caja Petrolera El Alto</t>
-        </is>
+          <t>Pol. Caja Petrolera El Alto, El Alto</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>-68.16643239999999</v>
+      </c>
+      <c r="E51">
+        <v>-16.5113141</v>
       </c>
     </row>
     <row r="52">
@@ -1527,19 +1547,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Clinica 6 De Agosto</t>
+          <t>Clinica 6 De Agosto, La Paz</t>
         </is>
       </c>
       <c r="D52">
-        <v>-16.5145036</v>
+        <v>-68.12108019999999</v>
       </c>
       <c r="E52">
-        <v>-68.1211313</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Clinica 6 De Agosto, Avenida 6 de Agosto, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5144964</v>
       </c>
     </row>
     <row r="53">
@@ -1555,8 +1570,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Caja Cordes (El Alto)</t>
-        </is>
+          <t>Caja Cordes (El Alto), El Alto</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>-68.12491009999999</v>
+      </c>
+      <c r="E53">
+        <v>-16.5086881</v>
       </c>
     </row>
     <row r="54">
@@ -1572,19 +1593,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Clinica Del Sur</t>
+          <t>Clinica Del Sur, La Paz</t>
         </is>
       </c>
       <c r="D54">
-        <v>-16.5256087</v>
+        <v>-68.1087205</v>
       </c>
       <c r="E54">
-        <v>-68.1085909</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Clinica del Sur, Calle 7 - Oscar Cerruto Collier 3353, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5257087</v>
       </c>
     </row>
     <row r="55">
@@ -1600,19 +1616,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hospital Universitario Nuestra Señora De La Paz</t>
+          <t>Hospital Universitario Nuestra Señora De La Paz, La Paz</t>
         </is>
       </c>
       <c r="D55">
-        <v>-16.5120069</v>
+        <v>-68.1281671</v>
       </c>
       <c r="E55">
-        <v>-68.1238652</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Hospital del Seguro Social Universitario La Paz, Avenida 6 de Agosto 2624, La Paz, Bolivia</t>
-        </is>
+        <v>-16.526631</v>
       </c>
     </row>
     <row r="56">
@@ -1628,19 +1639,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>El Tejar</t>
+          <t>El Tejar, La Paz</t>
         </is>
       </c>
       <c r="D56">
-        <v>-16.4966958</v>
+        <v>-68.15601699999999</v>
       </c>
       <c r="E56">
-        <v>-68.15639830000001</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Max Paredes, La Paz, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.49757</v>
       </c>
     </row>
     <row r="57">
@@ -1656,8 +1662,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Policlinico Caminos Regional La Paz</t>
-        </is>
+          <t>Policlinico Caminos Regional La Paz, La Paz</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E57">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="58">
@@ -1673,8 +1685,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>M. Madre De Dios V. D.</t>
-        </is>
+          <t>M. Madre De Dios V. D., El Alto</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>-68.1976604</v>
+      </c>
+      <c r="E58">
+        <v>-16.5492656</v>
       </c>
     </row>
     <row r="59">
@@ -1690,19 +1708,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Santiago I</t>
+          <t>Santiago I, El Alto</t>
         </is>
       </c>
       <c r="D59">
-        <v>-16.5219515</v>
+        <v>-68.1625179</v>
       </c>
       <c r="E59">
-        <v>-68.16441709999999</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Distrito 1, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5208527</v>
       </c>
     </row>
     <row r="60">
@@ -1718,8 +1731,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hospital De El Alto Sur</t>
-        </is>
+          <t>Hospital De El Alto Sur, El Alto</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>-68.2232185</v>
+      </c>
+      <c r="E60">
+        <v>-16.5262187</v>
       </c>
     </row>
     <row r="61">
@@ -1735,19 +1754,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Senkata</t>
+          <t>Senkata, El Alto</t>
         </is>
       </c>
       <c r="D61">
-        <v>-16.5830009</v>
+        <v>-68.1778784</v>
       </c>
       <c r="E61">
-        <v>-68.1845426</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Senkata, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5847181</v>
       </c>
     </row>
     <row r="62">
@@ -1763,19 +1777,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hospital Municipal La Portada</t>
+          <t>Hospital Municipal La Portada, La Paz</t>
         </is>
       </c>
       <c r="D62">
-        <v>-16.4892466</v>
+        <v>-68.1657426</v>
       </c>
       <c r="E62">
-        <v>-68.1655784</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Hospital Municipal La Portada, Avenida Florida, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4892073</v>
       </c>
     </row>
     <row r="63">
@@ -1791,8 +1800,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Centro De Medicina Nuclear Y Radioterapia El Alto</t>
-        </is>
+          <t>Centro De Medicina Nuclear Y Radioterapia El Alto, El Alto</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>-68.2152809</v>
+      </c>
+      <c r="E63">
+        <v>-16.5935076</v>
       </c>
     </row>
     <row r="64">
@@ -1808,8 +1823,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Crvir El Alto</t>
-        </is>
+          <t>Crvir El Alto, El Alto</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>-68.1620569</v>
+      </c>
+      <c r="E64">
+        <v>-16.5036958</v>
       </c>
     </row>
     <row r="65">
@@ -1825,19 +1846,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Achocalla</t>
+          <t>Achocalla, Achocalla</t>
         </is>
       </c>
       <c r="D65">
-        <v>-16.5680741</v>
+        <v>-68.167953</v>
       </c>
       <c r="E65">
-        <v>-68.1709563</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Achocalla, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.570721</v>
       </c>
     </row>
     <row r="66">
@@ -1853,19 +1869,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Mercedes, El Alto</t>
         </is>
       </c>
       <c r="D66">
-        <v>-15.6437345</v>
+        <v>-68.2081896</v>
       </c>
       <c r="E66">
-        <v>-67.2736082</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Municipio Alto Beni, Caranavi, Bolivia</t>
-        </is>
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="67">
@@ -1881,19 +1892,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Villa Avaroa</t>
+          <t>Villa Avaroa, El Alto</t>
         </is>
       </c>
       <c r="D67">
-        <v>-16.786069</v>
+        <v>-68.18573619999999</v>
       </c>
       <c r="E67">
-        <v>-65.58657410000001</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Villa Tunari, Chapare, Bolivia</t>
-        </is>
+        <v>-16.5295922</v>
       </c>
     </row>
     <row r="68">
@@ -1909,19 +1915,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Copacabana</t>
+          <t>Copacabana, El Alto</t>
         </is>
       </c>
       <c r="D68">
-        <v>-16.1657276</v>
+        <v>-68.17747749999999</v>
       </c>
       <c r="E68">
-        <v>-69.08543969999999</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Copacabana, Provincia Manco Kapac, Bolivia</t>
-        </is>
+        <v>-16.4824048</v>
       </c>
     </row>
     <row r="69">
@@ -1937,18 +1938,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Amachuma</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>-18.4020318</v>
-      </c>
-      <c r="E69">
-        <v>-68.2970844</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Turco, Sajama, Bolivia</t>
+          <t>Amachuma, Eucaliptus</t>
         </is>
       </c>
     </row>
@@ -1965,19 +1955,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hospital  Patacamaya</t>
+          <t>Hospital  Patacamaya, Patacamaya</t>
         </is>
       </c>
       <c r="D70">
-        <v>-17.2441445</v>
+        <v>-67.90726959999999</v>
       </c>
       <c r="E70">
-        <v>-67.9072463</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Hospital Boliviano Español Patacamaya, Calle Chuquisaca, Patacamaya, Bolivia</t>
-        </is>
+        <v>-17.244035</v>
       </c>
     </row>
     <row r="71">
@@ -1993,19 +1978,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nuevos Horizontes</t>
+          <t>Nuevos Horizontes, El Alto</t>
         </is>
       </c>
       <c r="D71">
-        <v>-14.5995384</v>
+        <v>-68.19074429999999</v>
       </c>
       <c r="E71">
-        <v>-67.2791387</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Canton Rurrenabaque, Rurrenabaque, General José Ballivián Segurola, Bolivia</t>
-        </is>
+        <v>-16.5471665</v>
       </c>
     </row>
     <row r="72">
@@ -2021,19 +2001,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6 De Junio</t>
+          <t>6 De Junio, El Alto</t>
         </is>
       </c>
       <c r="D72">
-        <v>-16.5541924</v>
+        <v>-68.1827595</v>
       </c>
       <c r="E72">
-        <v>-68.2035156</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>6 de Junio, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5346323</v>
       </c>
     </row>
     <row r="73">
@@ -2049,8 +2024,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Santa Rosa (Lpz-El Alto)</t>
-        </is>
+          <t>Santa Rosa (Lpz-El Alto), El Alto</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>-68.1654989</v>
+      </c>
+      <c r="E73">
+        <v>-16.5378818</v>
       </c>
     </row>
     <row r="74">
@@ -2066,19 +2047,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Callapa</t>
+          <t>Callapa, Santiago De Callapa</t>
         </is>
       </c>
       <c r="D74">
-        <v>-17.4675423</v>
+        <v>-68.35543799999999</v>
       </c>
       <c r="E74">
-        <v>-68.3311302</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Municipio Santiago de Callapa, Provincia Pacajes, Bolivia</t>
-        </is>
+        <v>-17.479429</v>
       </c>
     </row>
     <row r="75">
@@ -2094,19 +2070,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Corocoro</t>
+          <t>Corocoro, Coro Coro</t>
         </is>
       </c>
       <c r="D75">
-        <v>-17.1769763</v>
+        <v>-68.453743</v>
       </c>
       <c r="E75">
-        <v>-68.4537291</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Municipio Coro Coro, Provincia Pacajes, Bolivia</t>
-        </is>
+        <v>-17.17235</v>
       </c>
     </row>
     <row r="76">
@@ -2122,19 +2093,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cumbre Vilacota</t>
+          <t>Cumbre Vilacota, Ayo Ayo</t>
         </is>
       </c>
       <c r="D76">
-        <v>-17.0385368</v>
+        <v>-68.005737</v>
       </c>
       <c r="E76">
-        <v>-67.8939412</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Municipio Ayo Ayo, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-17.0941389</v>
       </c>
     </row>
     <row r="77">
@@ -2150,8 +2116,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>C.s. 6 De Agosto - Distrito 9</t>
-        </is>
+          <t>C.s. 6 De Agosto - Distrito 9, Achocalla</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>-68.167953</v>
+      </c>
+      <c r="E77">
+        <v>-16.570721</v>
       </c>
     </row>
     <row r="78">
@@ -2167,19 +2139,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1ro De Mayo</t>
+          <t>1ro De Mayo, El Alto</t>
         </is>
       </c>
       <c r="D78">
-        <v>-16.4848328</v>
+        <v>-68.2292008</v>
       </c>
       <c r="E78">
-        <v>-68.28317149999999</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1ro de mayo, Calle 6 de marzo, El Alto, Bolivia</t>
-        </is>
+        <v>-16.5006439</v>
       </c>
     </row>
     <row r="79">
@@ -2195,19 +2162,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12 De Octubre</t>
+          <t>12 De Octubre, El Alto</t>
         </is>
       </c>
       <c r="D79">
-        <v>-17.1426287</v>
+        <v>-68.1632632</v>
       </c>
       <c r="E79">
-        <v>-63.1260043</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Municipio General Saavedra, Provincia Obispo Santistevan, Bolivia</t>
-        </is>
+        <v>-16.5118872</v>
       </c>
     </row>
     <row r="80">
@@ -2223,19 +2185,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>San Pedro De Curahuara</t>
+          <t>San Pedro De Curahuara, San Pedro De Curahuara</t>
         </is>
       </c>
       <c r="D80">
-        <v>-17.6539758</v>
+        <v>-68.04811719999999</v>
       </c>
       <c r="E80">
-        <v>-68.0491828</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Municipio San Pedro de Curahuara, Provincia Gualberto Villaroel, Bolivia</t>
-        </is>
+        <v>-17.6537748</v>
       </c>
     </row>
     <row r="81">
@@ -2251,19 +2208,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jaruma</t>
+          <t>Jaruma, Sica Sica (Villa Aroma)</t>
         </is>
       </c>
       <c r="D81">
-        <v>-20.0897983</v>
+        <v>-67.74371499999999</v>
       </c>
       <c r="E81">
-        <v>-67.09535270000001</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Uyuni, Antonio Quijarro, Bolivia</t>
-        </is>
+        <v>-17.3332003</v>
       </c>
     </row>
     <row r="82">
@@ -2279,19 +2231,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Atipiris</t>
+          <t>Atipiris, El Alto</t>
         </is>
       </c>
       <c r="D82">
-        <v>-16.5913603</v>
+        <v>-68.2081896</v>
       </c>
       <c r="E82">
-        <v>-68.1796866</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Senkata, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="83">
@@ -2307,19 +2254,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Villa Exaltacion</t>
+          <t>Villa Exaltacion, El Alto</t>
         </is>
       </c>
       <c r="D83">
-        <v>-15.7651613</v>
+        <v>-68.1565559</v>
       </c>
       <c r="E83">
-        <v>-67.4675024</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Caranavi, Bolivia</t>
-        </is>
+        <v>-16.5369038</v>
       </c>
     </row>
     <row r="84">
@@ -2335,19 +2277,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>San Martin</t>
+          <t>San Martin, El Alto</t>
         </is>
       </c>
       <c r="D84">
-        <v>-16.7041604</v>
+        <v>-68.2195474</v>
       </c>
       <c r="E84">
-        <v>-62.8568551</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Municipio San Julián, Provincia Ñuflo de Chávez, Bolivia</t>
-        </is>
+        <v>-16.499617</v>
       </c>
     </row>
     <row r="85">
@@ -2363,19 +2300,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ventilla</t>
+          <t>Ventilla, El Alto</t>
         </is>
       </c>
       <c r="D85">
-        <v>-18.7714479</v>
+        <v>-68.18257319999999</v>
       </c>
       <c r="E85">
-        <v>-66.7321613</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Challapata, Eduardo Abaroa, Bolivia</t>
-        </is>
+        <v>-16.6176913</v>
       </c>
     </row>
     <row r="86">
@@ -2391,19 +2323,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Francisco, El Alto</t>
         </is>
       </c>
       <c r="D86">
-        <v>-16.7669012</v>
+        <v>-91.4410527</v>
       </c>
       <c r="E86">
-        <v>-65.33451770000001</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>San Francisco, Chapare, Bolivia</t>
-        </is>
+        <v>14.9431306</v>
       </c>
     </row>
     <row r="87">
@@ -2419,19 +2346,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Luis Espinal (El Alto)</t>
+          <t>Luis Espinal (El Alto), El Alto</t>
         </is>
       </c>
       <c r="D87">
-        <v>-16.517331</v>
+        <v>-68.202862</v>
       </c>
       <c r="E87">
-        <v>-68.1985105</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Luis Espinal, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4780167</v>
       </c>
     </row>
     <row r="88">
@@ -2447,19 +2369,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Calama</t>
+          <t>Calama, El Alto</t>
         </is>
       </c>
       <c r="D88">
-        <v>-18.7590678</v>
+        <v>-68.1855525</v>
       </c>
       <c r="E88">
-        <v>-67.67627299999999</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Municipio Belén de Andamarca, Provincia Sud Carangas, Bolivia</t>
-        </is>
+        <v>-16.5209482</v>
       </c>
     </row>
     <row r="89">
@@ -2475,19 +2392,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rosas Pampa</t>
+          <t>Rosas Pampa, El Alto</t>
         </is>
       </c>
       <c r="D89">
-        <v>-18.9834372</v>
+        <v>-68.1714609</v>
       </c>
       <c r="E89">
-        <v>-64.96113630000001</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Municipio Presto, Provincia Jaime Zudáñez, Bolivia</t>
-        </is>
+        <v>-16.5413177</v>
       </c>
     </row>
     <row r="90">
@@ -2503,19 +2415,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Tilata</t>
+          <t>Tilata, Viacha</t>
         </is>
       </c>
       <c r="D90">
-        <v>-16.2549291</v>
+        <v>-68.2922176</v>
       </c>
       <c r="E90">
-        <v>-68.0877737</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Tilata, La Paz, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.647866</v>
       </c>
     </row>
     <row r="91">
@@ -2531,19 +2438,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Villa Cooperativa</t>
+          <t>Villa Cooperativa, El Alto</t>
         </is>
       </c>
       <c r="D91">
-        <v>-16.4728335</v>
+        <v>-68.22139299999999</v>
       </c>
       <c r="E91">
-        <v>-68.2225014</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Distrito 14, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4722866</v>
       </c>
     </row>
     <row r="92">
@@ -2559,19 +2461,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>San Roque (El Alto)</t>
+          <t>San Roque (El Alto), El Alto</t>
         </is>
       </c>
       <c r="D92">
-        <v>-16.5230261</v>
+        <v>-68.1765585</v>
       </c>
       <c r="E92">
-        <v>-68.15054240000001</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>San Roque, Pasaje Peatonal S/N, El Alto, Bolivia</t>
-        </is>
+        <v>-16.4707059</v>
       </c>
     </row>
     <row r="93">
@@ -2587,19 +2484,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3 De Mayo</t>
+          <t>3 De Mayo, El Alto</t>
         </is>
       </c>
       <c r="D93">
-        <v>-16.9833684</v>
+        <v>-68.1856243</v>
       </c>
       <c r="E93">
-        <v>-62.6406041</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Municipio San Julián, Provincia Ñuflo de Chávez, Bolivia</t>
-        </is>
+        <v>-16.4792044</v>
       </c>
     </row>
     <row r="94">
@@ -2615,19 +2507,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jalsuri</t>
+          <t>Jalsuri, Viacha</t>
         </is>
       </c>
       <c r="D94">
-        <v>-17.735947</v>
+        <v>-68.2921927</v>
       </c>
       <c r="E94">
-        <v>-67.8950851</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Municipio San Pedro de Curahuara, Provincia Gualberto Villaroel, Bolivia</t>
-        </is>
+        <v>-16.6478387</v>
       </c>
     </row>
     <row r="95">
@@ -2643,8 +2530,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Urbanizacion Kenko</t>
-        </is>
+          <t>Urbanizacion Kenko, El Alto</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>-68.1913364</v>
+      </c>
+      <c r="E95">
+        <v>-16.5586372</v>
       </c>
     </row>
     <row r="96">
@@ -2660,19 +2553,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lahuachaca</t>
+          <t>Lahuachaca, Sica Sica (Villa Aroma)</t>
         </is>
       </c>
       <c r="D96">
-        <v>-17.3764769</v>
+        <v>-67.673371</v>
       </c>
       <c r="E96">
-        <v>-67.6746016</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Municipio Sica Sica, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-17.3751851</v>
       </c>
     </row>
     <row r="97">
@@ -2688,8 +2576,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Alto Chijini- U.v.a.</t>
-        </is>
+          <t>Alto Chijini- U.v.a., El Alto</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>-68.2081896</v>
+      </c>
+      <c r="E97">
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="98">
@@ -2705,19 +2599,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Marquirivi</t>
+          <t>Marquirivi, Colquencha</t>
         </is>
       </c>
       <c r="D98">
-        <v>-17.4847135</v>
+        <v>-68.26685379999999</v>
       </c>
       <c r="E98">
-        <v>-66.8460681</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Municipio Colquiri, Provincia Inquisivi, Bolivia</t>
-        </is>
+        <v>-16.9169969</v>
       </c>
     </row>
     <row r="99">
@@ -2733,19 +2622,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Villa  Nuevo Potosi</t>
+          <t>Villa  Nuevo Potosi, La Paz</t>
         </is>
       </c>
       <c r="D99">
-        <v>-16.5035335</v>
+        <v>-68.1475344</v>
       </c>
       <c r="E99">
-        <v>-68.147732</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>CMDI Villa Nuevo Potosí, Calle Ricardo Bustamante 1050, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5071038</v>
       </c>
     </row>
     <row r="100">
@@ -2761,19 +2645,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Hospital Caranavi</t>
+          <t>Hospital Caranavi, Caranavi</t>
         </is>
       </c>
       <c r="D100">
-        <v>-15.8307101</v>
+        <v>-67.5641911</v>
       </c>
       <c r="E100">
-        <v>-67.564176</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Hospital Municipal de Caranavi, Calle Batallon de Ingenieros, Caranavi, Bolivia</t>
-        </is>
+        <v>-15.8308181</v>
       </c>
     </row>
     <row r="101">
@@ -2789,19 +2668,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Los Pinos El Alto</t>
+          <t>Los Pinos El Alto, El Alto</t>
         </is>
       </c>
       <c r="D101">
-        <v>-16.5861575</v>
+        <v>-68.2248288</v>
       </c>
       <c r="E101">
-        <v>-68.17912870000001</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Senkata, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5062398</v>
       </c>
     </row>
     <row r="102">
@@ -2817,19 +2691,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Mercedario</t>
+          <t>Mercedario, El Alto</t>
         </is>
       </c>
       <c r="D102">
-        <v>-16.5157463</v>
+        <v>-68.18555720000001</v>
       </c>
       <c r="E102">
-        <v>-68.22588159999999</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Mercedario, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.586544</v>
       </c>
     </row>
     <row r="103">
@@ -2845,19 +2714,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cosmos 79</t>
+          <t>Cosmos 79, El Alto</t>
         </is>
       </c>
       <c r="D103">
-        <v>-16.524131</v>
+        <v>-68.2314813</v>
       </c>
       <c r="E103">
-        <v>-68.2232333</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Distrito 3, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5352542</v>
       </c>
     </row>
     <row r="104">
@@ -2873,19 +2737,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yanahuaya</t>
+          <t>Yanahuaya, Aucapata</t>
         </is>
       </c>
       <c r="D104">
-        <v>-15.4484087</v>
+        <v>-68.700484</v>
       </c>
       <c r="E104">
-        <v>-68.7006552</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Municipio Aucapata, Provincia Muñecas, Bolivia</t>
-        </is>
+        <v>-15.4484951</v>
       </c>
     </row>
     <row r="105">
@@ -2901,19 +2760,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Colchani</t>
+          <t>Colchani, Patacamaya</t>
         </is>
       </c>
       <c r="D105">
-        <v>-20.3006101</v>
+        <v>-67.89999999999999</v>
       </c>
       <c r="E105">
-        <v>-66.9378189</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Uyuni, Antonio Quijarro, Bolivia</t>
-        </is>
+        <v>-17.183333</v>
       </c>
     </row>
     <row r="106">
@@ -2929,19 +2783,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Stgo.de Llallagua</t>
+          <t>Stgo.de Llallagua, Colquencha</t>
         </is>
       </c>
       <c r="D106">
-        <v>-18.42426</v>
+        <v>-68.2057145</v>
       </c>
       <c r="E106">
-        <v>-66.58387999999999</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Llallagua, Potosí, Bolivia</t>
-        </is>
+        <v>-17.0241544</v>
       </c>
     </row>
     <row r="107">
@@ -2957,19 +2806,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Villa Adela</t>
+          <t>Villa Adela, El Alto</t>
         </is>
       </c>
       <c r="D107">
-        <v>-16.5230023</v>
+        <v>-68.21170459999999</v>
       </c>
       <c r="E107">
-        <v>-68.2104085</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Distrito 3, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5248281</v>
       </c>
     </row>
     <row r="108">
@@ -2985,19 +2829,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brasil, El Alto</t>
         </is>
       </c>
       <c r="D108">
-        <v>-17.784629</v>
+        <v>-51.92528</v>
       </c>
       <c r="E108">
-        <v>-63.1484476</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Brasil, Cuarto Anillo, Santa Cruz de la Sierra, Bolivia</t>
-        </is>
+        <v>-14.235004</v>
       </c>
     </row>
     <row r="109">
@@ -3013,19 +2852,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Unificada Potosi</t>
+          <t>Unificada Potosi, El Alto</t>
         </is>
       </c>
       <c r="D109">
-        <v>-16.5790466</v>
+        <v>-68.19491840000001</v>
       </c>
       <c r="E109">
-        <v>-68.19752440000001</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Senkata, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5787043</v>
       </c>
     </row>
     <row r="110">
@@ -3041,19 +2875,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Hosp. Achacachi</t>
+          <t>Hosp. Achacachi, Achacachi</t>
         </is>
       </c>
       <c r="D110">
-        <v>-16.05</v>
+        <v>-68.692712</v>
       </c>
       <c r="E110">
-        <v>-68.68333</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Achacachi, La Paz, Bolivia</t>
-        </is>
+        <v>-16.0424057</v>
       </c>
     </row>
     <row r="111">
@@ -3069,19 +2898,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Villa Remedios</t>
+          <t>Villa Remedios, Viacha</t>
         </is>
       </c>
       <c r="D111">
-        <v>-16.7714577</v>
+        <v>-68.2983541</v>
       </c>
       <c r="E111">
-        <v>-68.1735695</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Viacha, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.6530243</v>
       </c>
     </row>
     <row r="112">
@@ -3097,19 +2921,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Colquencha</t>
+          <t>Colquencha, Colquencha</t>
         </is>
       </c>
       <c r="D112">
-        <v>-16.9325974</v>
+        <v>-68.2489348</v>
       </c>
       <c r="E112">
-        <v>-68.2493918</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Municipio Colquencha, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-16.9326651</v>
       </c>
     </row>
     <row r="113">
@@ -3125,19 +2944,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Instituto De Rehabilitacion</t>
+          <t>Instituto De Rehabilitacion, La Paz</t>
         </is>
       </c>
       <c r="D113">
-        <v>-16.5449538</v>
+        <v>-68.11929359999999</v>
       </c>
       <c r="E113">
-        <v>-68.0818572</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Instituto Nacional de Rehabilitación, Avenida Los Nardos, La Paz, Bolivia</t>
-        </is>
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="114">
@@ -3153,19 +2967,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>San Antonio - Calamarca</t>
+          <t>San Antonio - Calamarca, Calamarca</t>
         </is>
       </c>
       <c r="D114">
-        <v>-16.9064374</v>
+        <v>-68.1178031</v>
       </c>
       <c r="E114">
-        <v>-68.1150413</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Iglesia de Calamarca, RN1: Ruta Nacional 1, Municipio Calamarca, Bolivia</t>
-        </is>
+        <v>-16.9087665</v>
       </c>
     </row>
     <row r="115">
@@ -3181,19 +2990,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Santiago Ii</t>
+          <t>Santiago Ii, El Alto</t>
         </is>
       </c>
       <c r="D115">
-        <v>-16.5372329</v>
+        <v>-68.17989709999999</v>
       </c>
       <c r="E115">
-        <v>-68.17887570000001</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Distrito 2, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.536293</v>
       </c>
     </row>
     <row r="116">
@@ -3209,19 +3013,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Santa Rosa De Lima</t>
+          <t>Santa Rosa De Lima, El Alto</t>
         </is>
       </c>
       <c r="D116">
-        <v>-11.9779441</v>
+        <v>-68.2081896</v>
       </c>
       <c r="E116">
-        <v>-67.3585796</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Municipio Sena, Provincia de Madre de Dios, Bolivia</t>
-        </is>
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="117">
@@ -3237,8 +3036,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Pasankery</t>
-        </is>
+          <t>Pasankery, La Paz</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>-68.14463189999999</v>
+      </c>
+      <c r="E117">
+        <v>-16.5244649</v>
       </c>
     </row>
     <row r="118">
@@ -3254,19 +3059,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hospital Municipal Viacha</t>
+          <t>Hospital Municipal Viacha, Viacha</t>
         </is>
       </c>
       <c r="D118">
-        <v>-16.6505728</v>
+        <v>-68.2921927</v>
       </c>
       <c r="E118">
-        <v>-68.2876076</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Hospital Municipal Viacha, Calle Beni, Viacha, Bolivia</t>
-        </is>
+        <v>-16.6478387</v>
       </c>
     </row>
     <row r="119">
@@ -3282,19 +3082,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>German Busch</t>
+          <t>German Busch, El Alto</t>
         </is>
       </c>
       <c r="D119">
-        <v>-19.0792354</v>
+        <v>-68.17899439999999</v>
       </c>
       <c r="E119">
-        <v>-58.3727935</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Germán Busch, Bolivia</t>
-        </is>
+        <v>-16.5321256</v>
       </c>
     </row>
     <row r="120">
@@ -3310,18 +3105,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Laja</t>
-        </is>
-      </c>
-      <c r="D120">
-        <v>-16.5365628</v>
-      </c>
-      <c r="E120">
-        <v>-68.3851786</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Laja, Provincia Los Andes, Bolivia</t>
+          <t>Laja, Laja</t>
         </is>
       </c>
     </row>
@@ -3338,8 +3122,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Centro De Salud Integral Comunitario Chacaltaya</t>
-        </is>
+          <t>Centro De Salud Integral Comunitario Chacaltaya, El Alto</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>-68.2081896</v>
+      </c>
+      <c r="E121">
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="122">
@@ -3355,19 +3145,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Alto Lima 2 Seccion</t>
+          <t>Alto Lima 2 Seccion, El Alto</t>
         </is>
       </c>
       <c r="D122">
-        <v>-16.4784098</v>
+        <v>-68.17593239999999</v>
       </c>
       <c r="E122">
-        <v>-68.18136699999999</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Distrito 6, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4763882</v>
       </c>
     </row>
     <row r="123">
@@ -3383,19 +3168,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Licoma</t>
+          <t>Licoma, Licoma Pampa</t>
         </is>
       </c>
       <c r="D123">
-        <v>-16.8045982</v>
+        <v>-67.20732409999999</v>
       </c>
       <c r="E123">
-        <v>-67.2028194</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Municipio Licoma, Provincia Inquisivi, Bolivia</t>
-        </is>
+        <v>-16.803554</v>
       </c>
     </row>
     <row r="124">
@@ -3411,19 +3191,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>El Calvario</t>
+          <t>El Calvario, La Paz</t>
         </is>
       </c>
       <c r="D124">
-        <v>-16.1616403</v>
+        <v>-68.11929359999999</v>
       </c>
       <c r="E124">
-        <v>-69.091364</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Mirador El Calvario, Subida al Calvario, Provincia Manco Kapac, Bolivia</t>
-        </is>
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="125">
@@ -3439,19 +3214,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Quime</t>
+          <t>Quime, Quime</t>
         </is>
       </c>
       <c r="D125">
-        <v>-16.9799847</v>
+        <v>-67.21626189999999</v>
       </c>
       <c r="E125">
-        <v>-67.2157204</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Quime, Provincia Inquisivi, Bolivia</t>
-        </is>
+        <v>-16.9794093</v>
       </c>
     </row>
     <row r="126">
@@ -3467,8 +3237,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Cdvir La Paz</t>
-        </is>
+          <t>Cdvir La Paz, La Paz</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>-68.144623</v>
+      </c>
+      <c r="E126">
+        <v>-16.4885994</v>
       </c>
     </row>
     <row r="127">
@@ -3484,8 +3260,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Clinica Médica De Atención Integral Obrajes S.r.l. (Cmaio S.r.l)</t>
-        </is>
+          <t>Clinica Médica De Atención Integral Obrajes S.r.l. (Cmaio S.r.l), La Paz</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>-68.10289829999999</v>
+      </c>
+      <c r="E127">
+        <v>-16.528245</v>
       </c>
     </row>
     <row r="128">
@@ -3501,19 +3283,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>San Juan Kenko</t>
+          <t>San Juan Kenko, El Alto</t>
         </is>
       </c>
       <c r="D128">
-        <v>-16.5661756</v>
+        <v>-68.1930965</v>
       </c>
       <c r="E128">
-        <v>-68.1932347</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>San Juan Kenko, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5667642</v>
       </c>
     </row>
     <row r="129">
@@ -3529,19 +3306,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Asuncion San Pedro</t>
+          <t>Asuncion San Pedro, El Alto</t>
         </is>
       </c>
       <c r="D129">
-        <v>-16.5444224</v>
+        <v>-57.57592599999999</v>
       </c>
       <c r="E129">
-        <v>-68.197305</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Distrito 2, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-25.2637399</v>
       </c>
     </row>
     <row r="130">
@@ -3557,19 +3329,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sapahaqui</t>
+          <t>Sapahaqui, Sapahaqui</t>
         </is>
       </c>
       <c r="D130">
-        <v>-16.8887962</v>
+        <v>-67.9508726</v>
       </c>
       <c r="E130">
-        <v>-67.9496073</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Municipio Sapahaqui, Provincia Loayza, Bolivia</t>
-        </is>
+        <v>-16.89004</v>
       </c>
     </row>
     <row r="131">
@@ -3585,19 +3352,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>San Jose De Charapaqui Ii</t>
+          <t>San Jose De Charapaqui Ii, El Alto</t>
         </is>
       </c>
       <c r="D131">
-        <v>-16.5330741</v>
+        <v>-68.21601269999999</v>
       </c>
       <c r="E131">
-        <v>-68.21532259999999</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Pollos El Traviesos II, Avenida Julio Cesar Valdez, El Alto, Bolivia</t>
-        </is>
+        <v>-16.5378097</v>
       </c>
     </row>
     <row r="132">
@@ -3613,19 +3375,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Huarina</t>
+          <t>Huarina, Huarina</t>
         </is>
       </c>
       <c r="D132">
-        <v>-16.190705</v>
+        <v>-68.59924030000001</v>
       </c>
       <c r="E132">
-        <v>-68.6010077</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Municipio Huarina, Provincia Omasuyos, Bolivia</t>
-        </is>
+        <v>-16.1931148</v>
       </c>
     </row>
     <row r="133">
@@ -3641,18 +3398,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Puerto Carmen</t>
-        </is>
-      </c>
-      <c r="D133">
-        <v>-15.7260017</v>
-      </c>
-      <c r="E133">
-        <v>-67.1081468</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Municipio Palos Blancos, Provincia Sud Yungas, Bolivia</t>
+          <t>Puerto Carmen, Palos Blancos</t>
         </is>
       </c>
     </row>
@@ -3669,19 +3415,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Curva Pucara</t>
+          <t>Curva Pucara, Laja</t>
         </is>
       </c>
       <c r="D134">
-        <v>-16.5959125</v>
+        <v>-68.5705401</v>
       </c>
       <c r="E134">
-        <v>-68.5709956</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Laja, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.5958094</v>
       </c>
     </row>
     <row r="135">
@@ -3697,8 +3438,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Alto Lima Iii</t>
-        </is>
+          <t>Alto Lima Iii, El Alto</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>-68.17593239999999</v>
+      </c>
+      <c r="E135">
+        <v>-16.4763882</v>
       </c>
     </row>
     <row r="136">
@@ -3714,19 +3461,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cotapampa</t>
+          <t>Cotapampa, Gral. J.j. Perez  (Charazani)</t>
         </is>
       </c>
       <c r="D136">
-        <v>-15.9849232</v>
+        <v>-69.094286</v>
       </c>
       <c r="E136">
-        <v>-68.6767076</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Municipio Achacachi, Provincia Omasuyos, Bolivia</t>
-        </is>
+        <v>-15.215939</v>
       </c>
     </row>
     <row r="137">
@@ -3742,19 +3484,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Calamarca</t>
+          <t>Calamarca, Calamarca</t>
         </is>
       </c>
       <c r="D137">
-        <v>-16.9058093</v>
+        <v>-68.1178031</v>
       </c>
       <c r="E137">
-        <v>-68.11548790000001</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Municipio Calamarca, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-16.9087665</v>
       </c>
     </row>
     <row r="138">
@@ -3770,19 +3507,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Villa Yunguyo</t>
+          <t>Villa Yunguyo, El Alto</t>
         </is>
       </c>
       <c r="D138">
-        <v>-16.4936768</v>
+        <v>-68.22351519999999</v>
       </c>
       <c r="E138">
-        <v>-68.2244326</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Distrito 4, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4938161</v>
       </c>
     </row>
     <row r="139">
@@ -3798,19 +3530,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Pacaures</t>
+          <t>Pacaures, Mocomoco</t>
         </is>
       </c>
       <c r="D139">
-        <v>-15.5864626</v>
+        <v>-69.05827780000001</v>
       </c>
       <c r="E139">
-        <v>-69.07278479999999</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Municipio Mocomoco, Provincia de Eliodoro Camacho, Bolivia</t>
-        </is>
+        <v>-15.5830274</v>
       </c>
     </row>
     <row r="140">
@@ -3826,19 +3553,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Lotes Y Servicios</t>
+          <t>Lotes Y Servicios, El Alto</t>
         </is>
       </c>
       <c r="D140">
-        <v>-16.4958643</v>
+        <v>-68.21501420000001</v>
       </c>
       <c r="E140">
-        <v>-68.2139483</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Distrito 4, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4956733</v>
       </c>
     </row>
     <row r="141">
@@ -3854,19 +3576,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Machacamarca</t>
+          <t>Machacamarca, Cairoma</t>
         </is>
       </c>
       <c r="D141">
-        <v>-16.8787493</v>
+        <v>-67.0220762</v>
       </c>
       <c r="E141">
-        <v>-68.2234093</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Municipio Colquencha, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-18.1719809</v>
       </c>
     </row>
     <row r="142">
@@ -3882,19 +3599,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Prefectural</t>
+          <t>Prefectural, El Alto</t>
         </is>
       </c>
       <c r="D142">
-        <v>-17.3529272</v>
+        <v>-68.1803153</v>
       </c>
       <c r="E142">
-        <v>-66.1563434</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Prefectural, Cochabamba, Cercado, Bolivia</t>
-        </is>
+        <v>-16.5248241</v>
       </c>
     </row>
     <row r="143">
@@ -3910,19 +3622,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Huayna Potosi</t>
+          <t>Huayna Potosi, El Alto</t>
         </is>
       </c>
       <c r="D143">
-        <v>-16.262443</v>
+        <v>-68.1745888</v>
       </c>
       <c r="E143">
-        <v>-68.154129</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Huayna Potosí, Pucarani, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.4763328</v>
       </c>
     </row>
     <row r="144">
@@ -3938,19 +3645,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Huari Belen</t>
+          <t>Huari Belen, Umala</t>
         </is>
       </c>
       <c r="D144">
-        <v>-17.463309</v>
+        <v>-68.02160859999999</v>
       </c>
       <c r="E144">
-        <v>-68.0094565</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Municipio Umala, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-17.3730448</v>
       </c>
     </row>
     <row r="145">
@@ -3966,8 +3668,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hosp. Viedma</t>
-        </is>
+          <t>Hosp. Viedma, Cochabamba</t>
+        </is>
+      </c>
+      <c r="D145">
+        <v>-66.14862599999999</v>
+      </c>
+      <c r="E145">
+        <v>-17.3855671</v>
       </c>
     </row>
     <row r="146">
@@ -3983,8 +3691,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Clínica Sociedad Médica Alemana S.r.l.</t>
-        </is>
+          <t>Clínica Sociedad Médica Alemana S.r.l., La Paz</t>
+        </is>
+      </c>
+      <c r="D146">
+        <v>-68.12370109999999</v>
+      </c>
+      <c r="E146">
+        <v>-16.5114202</v>
       </c>
     </row>
     <row r="147">
@@ -4000,19 +3714,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Hospital Del Seguro Social Universitario</t>
+          <t>Hospital Del Seguro Social Universitario, La Paz</t>
         </is>
       </c>
       <c r="D147">
-        <v>-16.5120069</v>
+        <v>-68.1237883</v>
       </c>
       <c r="E147">
-        <v>-68.1238652</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Hospital del Seguro Social Universitario La Paz, Avenida 6 de Agosto 2624, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5119432</v>
       </c>
     </row>
     <row r="148">
@@ -4028,8 +3737,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Hospital Psiquiatrico N° 14</t>
-        </is>
+          <t>Hospital Psiquiatrico N° 14, La Paz</t>
+        </is>
+      </c>
+      <c r="D148">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E148">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="149">
@@ -4045,19 +3760,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Hospital San Gabriel</t>
+          <t>Hospital San Gabriel, La Paz</t>
         </is>
       </c>
       <c r="D149">
-        <v>-16.4915524</v>
+        <v>-68.1165455</v>
       </c>
       <c r="E149">
-        <v>-68.11661410000001</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Hospital San Gabriel, Calle Pedro Villamil, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4914321</v>
       </c>
     </row>
     <row r="150">
@@ -4073,8 +3783,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Hosp. Gastroenterologico</t>
-        </is>
+          <t>Hosp. Gastroenterologico, Sucre</t>
+        </is>
+      </c>
+      <c r="D150">
+        <v>-65.26820630000002</v>
+      </c>
+      <c r="E150">
+        <v>-19.0456572</v>
       </c>
     </row>
     <row r="151">
@@ -4090,8 +3806,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Intercultural Bartolina Sisa</t>
-        </is>
+          <t>Intercultural Bartolina Sisa, La Paz</t>
+        </is>
+      </c>
+      <c r="D151">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E151">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="152">
@@ -4107,8 +3829,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Instituto Nacional De Medicina Nuclear</t>
-        </is>
+          <t>Instituto Nacional De Medicina Nuclear, La Paz</t>
+        </is>
+      </c>
+      <c r="D152">
+        <v>-68.1193104</v>
+      </c>
+      <c r="E152">
+        <v>-16.5086052</v>
       </c>
     </row>
     <row r="153">
@@ -4124,19 +3852,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Villa Ingenio</t>
+          <t>Villa Ingenio, El Alto</t>
         </is>
       </c>
       <c r="D153">
-        <v>-16.478847</v>
+        <v>-68.20184019999999</v>
       </c>
       <c r="E153">
-        <v>-68.2103831</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Distrito 5, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4772713</v>
       </c>
     </row>
     <row r="154">
@@ -4152,19 +3875,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Puerto Mejillones</t>
+          <t>Puerto Mejillones, El Alto</t>
         </is>
       </c>
       <c r="D154">
-        <v>-15.9002754</v>
+        <v>-68.1527803</v>
       </c>
       <c r="E154">
-        <v>-67.2295211</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Municipio La Asunta, Provincia Sud Yungas, Bolivia</t>
-        </is>
+        <v>-16.5274333</v>
       </c>
     </row>
     <row r="155">
@@ -4180,19 +3898,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Alto Lima Iv</t>
+          <t>Alto Lima Iv, El Alto</t>
         </is>
       </c>
       <c r="D155">
-        <v>-16.4763958</v>
+        <v>-68.17593239999999</v>
       </c>
       <c r="E155">
-        <v>-68.17379750000001</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Distrito 6, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4763882</v>
       </c>
     </row>
     <row r="156">
@@ -4208,19 +3921,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Plan Vivienda Villa Esperanza</t>
+          <t>Plan Vivienda Villa Esperanza, El Alto</t>
         </is>
       </c>
       <c r="D156">
-        <v>-20.8182</v>
+        <v>-68.19695489999999</v>
       </c>
       <c r="E156">
-        <v>-63.9376</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Villa Esperanza, Chuquisaca, Bolivia</t>
-        </is>
+        <v>-16.4897918</v>
       </c>
     </row>
     <row r="157">
@@ -4236,19 +3944,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Villa Tunari</t>
+          <t>Villa Tunari, El Alto</t>
         </is>
       </c>
       <c r="D157">
-        <v>-16.9728088</v>
+        <v>-68.1962169</v>
       </c>
       <c r="E157">
-        <v>-65.4201829</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Villa Tunari, Chapare, Bolivia</t>
-        </is>
+        <v>-16.5185663</v>
       </c>
     </row>
     <row r="158">
@@ -4264,19 +3967,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Guanay</t>
+          <t>Guanay, Guanay</t>
         </is>
       </c>
       <c r="D158">
-        <v>-15.4977479</v>
+        <v>-67.8823146</v>
       </c>
       <c r="E158">
-        <v>-67.87975539999999</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Municipio Guanay, Provincia Larecaja, Bolivia</t>
-        </is>
+        <v>-15.4979257</v>
       </c>
     </row>
     <row r="159">
@@ -4292,19 +3990,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Clinica Jesus Obrero</t>
+          <t>Clinica Jesus Obrero, El Alto</t>
         </is>
       </c>
       <c r="D159">
-        <v>-17.8296924</v>
+        <v>-68.1969163</v>
       </c>
       <c r="E159">
-        <v>-63.1726282</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Clinica Jesus Obrero, Quinto Anillo, Santa Cruz de la Sierra, Bolivia</t>
-        </is>
+        <v>-16.5296076</v>
       </c>
     </row>
     <row r="160">
@@ -4320,19 +4013,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Obispo Indaburo</t>
+          <t>Obispo Indaburo, La Paz</t>
         </is>
       </c>
       <c r="D160">
-        <v>-16.5011419</v>
+        <v>-68.13317619999999</v>
       </c>
       <c r="E160">
-        <v>-68.1455605</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Mercado Modelo Obispo Indaburo, Calle Antonio Gallardo, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4945328</v>
       </c>
     </row>
     <row r="161">
@@ -4348,19 +4036,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>San Jose De Yunguyo</t>
+          <t>San Jose De Yunguyo, El Alto</t>
         </is>
       </c>
       <c r="D161">
-        <v>-16.4979085</v>
+        <v>-68.1912559</v>
       </c>
       <c r="E161">
-        <v>-68.2234218</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Distrito 4, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.5881817</v>
       </c>
     </row>
     <row r="162">
@@ -4376,8 +4059,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hogar Niño Jesus</t>
-        </is>
+          <t>Hogar Niño Jesus, La Paz</t>
+        </is>
+      </c>
+      <c r="D162">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E162">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="163">
@@ -4393,19 +4082,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pomamaya</t>
+          <t>Pomamaya, El Alto</t>
         </is>
       </c>
       <c r="D163">
-        <v>-16.4939612</v>
+        <v>-68.2954778</v>
       </c>
       <c r="E163">
-        <v>-68.3026364</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4875864</v>
       </c>
     </row>
     <row r="164">
@@ -4421,19 +4105,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pelechuco</t>
+          <t>Pelechuco, Pelechuco</t>
         </is>
       </c>
       <c r="D164">
-        <v>-14.8193074</v>
+        <v>-69.07168970000001</v>
       </c>
       <c r="E164">
-        <v>-69.0707755</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Municipio Pelechuco, Provincia Franz Tamayo, Bolivia</t>
-        </is>
+        <v>-14.8198404</v>
       </c>
     </row>
     <row r="165">
@@ -4449,19 +4128,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Pol. Villa Adela</t>
+          <t>Pol. Villa Adela, El Alto</t>
         </is>
       </c>
       <c r="D165">
-        <v>-17.3850332</v>
+        <v>-68.21170459999999</v>
       </c>
       <c r="E165">
-        <v>-66.1439998</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Calle José Pol, Cochabamba, Bolivia</t>
-        </is>
+        <v>-16.5248281</v>
       </c>
     </row>
     <row r="166">
@@ -4477,19 +4151,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Csbp - Clinica La Paz</t>
+          <t>Csbp - Clinica La Paz, La Paz</t>
         </is>
       </c>
       <c r="D166">
-        <v>-16.5246915</v>
+        <v>-87.6729074</v>
       </c>
       <c r="E166">
-        <v>-68.11304490000001</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Clínica de la CSBP, Avenida Héctor Ormachea, La Paz, Bolivia</t>
-        </is>
+        <v>14.3271237</v>
       </c>
     </row>
     <row r="167">
@@ -4505,18 +4174,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Batallas</t>
-        </is>
-      </c>
-      <c r="D167">
-        <v>-16.2993218</v>
-      </c>
-      <c r="E167">
-        <v>-68.5317223</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Batallas, Provincia Los Andes, Bolivia</t>
+          <t>Batallas, Batallas</t>
         </is>
       </c>
     </row>
@@ -4533,19 +4191,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>San Juan Lazareto</t>
+          <t>San Juan Lazareto, La Paz</t>
         </is>
       </c>
       <c r="D168">
-        <v>-16.486943</v>
+        <v>-68.1259247</v>
       </c>
       <c r="E168">
-        <v>-68.12654999999999</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Cancha San Juan Lazareto, Calle Diego de Peralta, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4946766</v>
       </c>
     </row>
     <row r="169">
@@ -4561,19 +4214,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Franz Tamayo</t>
+          <t>Franz Tamayo, El Alto</t>
         </is>
       </c>
       <c r="D169">
-        <v>-17.1842066</v>
+        <v>-68.21172610000001</v>
       </c>
       <c r="E169">
-        <v>-67.259479</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Municipio Ichoca, Provincia Inquisivi, Bolivia</t>
-        </is>
+        <v>-16.4853183</v>
       </c>
     </row>
     <row r="170">
@@ -4589,19 +4237,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Hospital Municipal Cotahuma</t>
+          <t>Hospital Municipal Cotahuma, La Paz</t>
         </is>
       </c>
       <c r="D170">
-        <v>-16.5155909</v>
+        <v>-68.1395218</v>
       </c>
       <c r="E170">
-        <v>-68.1393848</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Hospital Municipal Cotahuma, Avenida Jaime Zudañez, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5155626</v>
       </c>
     </row>
     <row r="171">
@@ -4617,19 +4260,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Puerto Camacho</t>
+          <t>Puerto Camacho, El Alto</t>
         </is>
       </c>
       <c r="D171">
-        <v>-16.4923895</v>
+        <v>-68.2081896</v>
       </c>
       <c r="E171">
-        <v>-68.2369513</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Distrito 14, El Alto, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="172">
@@ -4645,19 +4283,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Villa Vilaque</t>
+          <t>Villa Vilaque, Pucarani</t>
         </is>
       </c>
       <c r="D172">
-        <v>-16.4281434</v>
+        <v>-68.47740899999999</v>
       </c>
       <c r="E172">
-        <v>-68.33233130000001</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Villa Vilaque, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.3995412</v>
       </c>
     </row>
     <row r="173">
@@ -4673,19 +4306,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Corpa</t>
+          <t>Corpa, Jesus De Machaca</t>
         </is>
       </c>
       <c r="D173">
-        <v>-16.5546232</v>
+        <v>-68.86602929999999</v>
       </c>
       <c r="E173">
-        <v>-68.6076855</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Tiahuanacu, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.6775743</v>
       </c>
     </row>
     <row r="174">
@@ -4701,19 +4329,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Cantapa</t>
+          <t>Cantapa, Laja</t>
         </is>
       </c>
       <c r="D174">
-        <v>-16.6549623</v>
+        <v>-68.55452670000001</v>
       </c>
       <c r="E174">
-        <v>-68.55477809999999</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Cantapa, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.6547115</v>
       </c>
     </row>
     <row r="175">
@@ -4729,8 +4352,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Viacha Cns</t>
-        </is>
+          <t>Viacha Cns, Viacha</t>
+        </is>
+      </c>
+      <c r="D175">
+        <v>-68.29845659999999</v>
+      </c>
+      <c r="E175">
+        <v>-16.6520352</v>
       </c>
     </row>
     <row r="176">
@@ -4746,19 +4375,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Tajocachi</t>
+          <t>Tajocachi, Santiago De Huata</t>
         </is>
       </c>
       <c r="D176">
-        <v>-16.0902183</v>
+        <v>-68.8898751</v>
       </c>
       <c r="E176">
-        <v>-68.8868035</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Municipio Santiago de Huata, Provincia Omasuyos, Bolivia</t>
-        </is>
+        <v>-16.0881653</v>
       </c>
     </row>
     <row r="177">
@@ -4774,8 +4398,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>C.s. Achacachi -Cns</t>
-        </is>
+          <t>C.s. Achacachi -Cns, Achacachi</t>
+        </is>
+      </c>
+      <c r="D177">
+        <v>-68.7035738</v>
+      </c>
+      <c r="E177">
+        <v>-16.0285589</v>
       </c>
     </row>
     <row r="178">
@@ -4791,19 +4421,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>16 De Julio Prosalud</t>
+          <t>16 De Julio Prosalud, El Alto</t>
         </is>
       </c>
       <c r="D178">
-        <v>-16.5011825</v>
+        <v>-68.1714609</v>
       </c>
       <c r="E178">
-        <v>-68.17113190000001</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>PROSALUD 16 de Julio, Avenida Juan Pablo II, El Alto, Bolivia</t>
-        </is>
+        <v>-16.4967763</v>
       </c>
     </row>
     <row r="179">
@@ -4819,19 +4444,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Achacachi</t>
+          <t>Achacachi, Achacachi</t>
         </is>
       </c>
       <c r="D179">
-        <v>-16.0438951</v>
+        <v>-68.7035738</v>
       </c>
       <c r="E179">
-        <v>-68.6849563</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Municipio Achacachi, Provincia Omasuyos, Bolivia</t>
-        </is>
+        <v>-16.0285589</v>
       </c>
     </row>
     <row r="180">
@@ -4847,19 +4467,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Catacora</t>
+          <t>Catacora, Catacora</t>
         </is>
       </c>
       <c r="D180">
-        <v>-16.3023196</v>
+        <v>-69.483333</v>
       </c>
       <c r="E180">
-        <v>-68.4617385</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Catacora, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-17.166667</v>
       </c>
     </row>
     <row r="181">
@@ -4875,8 +4490,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Policonsultorio Prosalud La Paz</t>
-        </is>
+          <t>Policonsultorio Prosalud La Paz, La Paz</t>
+        </is>
+      </c>
+      <c r="D181">
+        <v>-68.11929359999999</v>
+      </c>
+      <c r="E181">
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="182">
@@ -4892,19 +4513,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Hospital San Francisco De Asis</t>
+          <t>Hospital San Francisco De Asis, La Paz</t>
         </is>
       </c>
       <c r="D182">
-        <v>-16.4697073</v>
+        <v>-68.11447489999999</v>
       </c>
       <c r="E182">
-        <v>-68.1144249</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Hospital San Francisco de Asis, Calle 1, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4696156</v>
       </c>
     </row>
     <row r="183">
@@ -4920,19 +4536,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Conzata</t>
+          <t>Conzata, Tacacoma</t>
         </is>
       </c>
       <c r="D183">
-        <v>-15.3783643</v>
+        <v>-68.536858</v>
       </c>
       <c r="E183">
-        <v>-68.50932229999999</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Municipio Tacacoma, Provincia Larecaja, Bolivia</t>
-        </is>
+        <v>-15.32929</v>
       </c>
     </row>
     <row r="184">
@@ -4948,19 +4559,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>16 De Febrero</t>
+          <t>16 De Febrero, El Alto</t>
         </is>
       </c>
       <c r="D184">
-        <v>-19.8140833</v>
+        <v>-68.22756529999999</v>
       </c>
       <c r="E184">
-        <v>-64.00140740000001</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Municipio Monteagudo, Provincia Hernando Siles, Bolivia</t>
-        </is>
+        <v>-16.5034962</v>
       </c>
     </row>
     <row r="185">
@@ -4976,19 +4582,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Panduro</t>
+          <t>Panduro, Sica Sica (Villa Aroma)</t>
         </is>
       </c>
       <c r="D185">
-        <v>-17.4941361</v>
+        <v>-67.4456912</v>
       </c>
       <c r="E185">
-        <v>-67.4439711</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Municipio Sica Sica, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-17.498809</v>
       </c>
     </row>
     <row r="186">
@@ -5004,19 +4605,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Anquioma</t>
+          <t>Anquioma, Luribay</t>
         </is>
       </c>
       <c r="D186">
-        <v>-16.9851314</v>
+        <v>-67.6572091</v>
       </c>
       <c r="E186">
-        <v>-67.6624173</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Municipio Luribay, Provincia Loayza, Bolivia</t>
-        </is>
+        <v>-16.992135</v>
       </c>
     </row>
     <row r="187">
@@ -5032,19 +4628,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Carabuco</t>
+          <t>Carabuco, Puerto Carabuco</t>
         </is>
       </c>
       <c r="D187">
-        <v>-15.7582907</v>
+        <v>-69.0649837</v>
       </c>
       <c r="E187">
-        <v>-69.0643809</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Municipio Puerto Carabuco, Provincia de Eliodoro Camacho, Bolivia</t>
-        </is>
+        <v>-15.7569482</v>
       </c>
     </row>
     <row r="188">
@@ -5060,19 +4651,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Catavi</t>
+          <t>Catavi, Pucarani</t>
         </is>
       </c>
       <c r="D188">
-        <v>-16.4949772</v>
+        <v>-68.5850805</v>
       </c>
       <c r="E188">
-        <v>-68.58455259999999</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Catavi, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.4947378</v>
       </c>
     </row>
     <row r="189">
@@ -5088,19 +4674,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Romero Pampa</t>
+          <t>Romero Pampa, El Alto</t>
         </is>
       </c>
       <c r="D189">
-        <v>-17.3604356</v>
+        <v>-68.20791009999999</v>
       </c>
       <c r="E189">
-        <v>-68.2354414</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Municipio Santiago de Callapa, Provincia Pacajes, Bolivia</t>
-        </is>
+        <v>-16.5425205</v>
       </c>
     </row>
     <row r="190">
@@ -5116,19 +4697,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Circuata</t>
+          <t>Circuata, Cajuata</t>
         </is>
       </c>
       <c r="D190">
-        <v>-16.6447581</v>
+        <v>-67.2311153</v>
       </c>
       <c r="E190">
-        <v>-67.2312708</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Municipio Cajuata, Provincia Inquisivi, Bolivia</t>
-        </is>
+        <v>-16.6448129</v>
       </c>
     </row>
     <row r="191">
@@ -5144,19 +4720,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Anchallani</t>
+          <t>Anchallani, Luribay</t>
         </is>
       </c>
       <c r="D191">
-        <v>-17.1341757</v>
+        <v>-67.68926569999999</v>
       </c>
       <c r="E191">
-        <v>-67.68531950000001</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Municipio Luribay, Provincia Loayza, Bolivia</t>
-        </is>
+        <v>-17.1251996</v>
       </c>
     </row>
     <row r="192">
@@ -5172,19 +4743,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Puerto Acosta</t>
+          <t>Puerto Acosta, Puerto Acosta</t>
         </is>
       </c>
       <c r="D192">
-        <v>-15.5328927</v>
+        <v>-69.2520545</v>
       </c>
       <c r="E192">
-        <v>-69.25235309999999</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Municipio Puerto Acosta, Provincia de Eliodoro Camacho, Bolivia</t>
-        </is>
+        <v>-15.5334566</v>
       </c>
     </row>
     <row r="193">
@@ -5200,8 +4766,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Hospital Municipal Pucarani</t>
-        </is>
+          <t>Hospital Municipal Pucarani, Pucarani</t>
+        </is>
+      </c>
+      <c r="D193">
+        <v>-68.47740899999999</v>
+      </c>
+      <c r="E193">
+        <v>-16.3995412</v>
       </c>
     </row>
     <row r="194">
@@ -5217,19 +4789,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cairoma</t>
+          <t>Cairoma, Cairoma</t>
         </is>
       </c>
       <c r="D194">
-        <v>-16.904439</v>
+        <v>-67.6185376</v>
       </c>
       <c r="E194">
-        <v>-67.5396757</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Municipio Cairoma, Provincia Loayza, Bolivia</t>
-        </is>
+        <v>-16.9010075</v>
       </c>
     </row>
     <row r="195">
@@ -5245,19 +4812,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Viacha</t>
+          <t>Viacha, Viacha</t>
         </is>
       </c>
       <c r="D195">
-        <v>-16.6534864</v>
+        <v>-68.2921927</v>
       </c>
       <c r="E195">
-        <v>-68.30218910000001</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Viacha, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.6478387</v>
       </c>
     </row>
     <row r="196">
@@ -5273,19 +4835,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>San Pedro De Tiquina</t>
+          <t>San Pedro De Tiquina, San Pedro De Tiquina</t>
         </is>
       </c>
       <c r="D196">
-        <v>-16.2216608</v>
+        <v>-68.8705004</v>
       </c>
       <c r="E196">
-        <v>-68.8529647</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>San Pedro de Tiquina, Provincia Manco Kapac, Bolivia</t>
-        </is>
+        <v>-16.2465165</v>
       </c>
     </row>
     <row r="197">
@@ -5301,19 +4858,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Florida, Viacha</t>
         </is>
       </c>
       <c r="D197">
-        <v>-18.8035751</v>
+        <v>-68.2921927</v>
       </c>
       <c r="E197">
-        <v>-68.34769609999999</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Municipio Cruz de Machacamarca, Provincia Litoral, Bolivia</t>
-        </is>
+        <v>-16.6478387</v>
       </c>
     </row>
     <row r="198">
@@ -5329,19 +4881,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Tuquia</t>
+          <t>Tuquia, Batallas</t>
         </is>
       </c>
       <c r="D198">
-        <v>-16.2141486</v>
+        <v>35.243322</v>
       </c>
       <c r="E198">
-        <v>-68.46570180000001</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Tuquia, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>38.963745</v>
       </c>
     </row>
     <row r="199">
@@ -5357,19 +4904,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Ocomisto</t>
+          <t>Ocomisto, El Alto</t>
         </is>
       </c>
       <c r="D199">
-        <v>-16.5</v>
+        <v>-68.2081896</v>
       </c>
       <c r="E199">
-        <v>-68.28333000000001</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Ocomisto, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="200">
@@ -5385,8 +4927,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>C.s.a. Norte Achocalla</t>
-        </is>
+          <t>C.s.a. Norte Achocalla, Achocalla</t>
+        </is>
+      </c>
+      <c r="D200">
+        <v>-68.167953</v>
+      </c>
+      <c r="E200">
+        <v>-16.570721</v>
       </c>
     </row>
     <row r="201">
@@ -5402,18 +4950,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Kallutaca</t>
-        </is>
-      </c>
-      <c r="D201">
-        <v>-16.527439</v>
-      </c>
-      <c r="E201">
-        <v>-68.3078111</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Kallutaca, Provincia Los Andes, Bolivia</t>
+          <t>Kallutaca, Laja</t>
         </is>
       </c>
     </row>
@@ -5430,19 +4967,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Desaguadero</t>
+          <t>Desaguadero, Desaguadero</t>
         </is>
       </c>
       <c r="D202">
-        <v>-16.5683629</v>
+        <v>-69.040395</v>
       </c>
       <c r="E202">
-        <v>-69.0341311</v>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Municipio Desaguadero, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.5631251</v>
       </c>
     </row>
     <row r="203">
@@ -5458,19 +4990,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Tacacoma</t>
+          <t>Tacacoma, Tacacoma</t>
         </is>
       </c>
       <c r="D203">
-        <v>-15.5891651</v>
+        <v>-68.4770183</v>
       </c>
       <c r="E203">
-        <v>-68.6451936</v>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Municipio Tacacoma, Provincia Larecaja, Bolivia</t>
-        </is>
+        <v>-15.3058307</v>
       </c>
     </row>
     <row r="204">
@@ -5486,19 +5013,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Palcoco</t>
+          <t>Palcoco, Pucarani</t>
         </is>
       </c>
       <c r="D204">
-        <v>-16.3345705</v>
+        <v>-68.45608709999999</v>
       </c>
       <c r="E204">
-        <v>-68.4156217</v>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Palcoco, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.298881</v>
       </c>
     </row>
     <row r="205">
@@ -5514,19 +5036,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Tacamara</t>
+          <t>Tacamara, Achacachi</t>
         </is>
       </c>
       <c r="D205">
-        <v>-16.0236187</v>
+        <v>-68.61817429999999</v>
       </c>
       <c r="E205">
-        <v>-68.6172069</v>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Comunidad Tacamara, Camino Achacachi-Chachacomani, Municipio Achacachi, Bolivia</t>
-        </is>
+        <v>-16.0205739</v>
       </c>
     </row>
     <row r="206">
@@ -5542,19 +5059,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Chama</t>
+          <t>Chama, Jesus De Machaca</t>
         </is>
       </c>
       <c r="D206">
-        <v>-16.795096</v>
+        <v>-68.8068688</v>
       </c>
       <c r="E206">
-        <v>-68.57990820000001</v>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Municipio Jesús de Machaca, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.7438338</v>
       </c>
     </row>
     <row r="207">
@@ -5570,19 +5082,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Aygachi</t>
+          <t>Aygachi, Pucarani</t>
         </is>
       </c>
       <c r="D207">
-        <v>-16.378167</v>
+        <v>-68.590553</v>
       </c>
       <c r="E207">
-        <v>-68.5953999</v>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Municipio Puerto Pérez, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.390989</v>
       </c>
     </row>
     <row r="208">
@@ -5598,8 +5105,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Chijini Chico- U.v.a.</t>
-        </is>
+          <t>Chijini Chico- U.v.a., El Alto</t>
+        </is>
+      </c>
+      <c r="D208">
+        <v>-68.2081896</v>
+      </c>
+      <c r="E208">
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="209">
@@ -5615,18 +5128,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Huacuyo</t>
-        </is>
-      </c>
-      <c r="D209">
-        <v>-16.1776136</v>
-      </c>
-      <c r="E209">
-        <v>-69.03389300000001</v>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Huacuyo, Provincia Manco Kapac, Bolivia</t>
+          <t>Huacuyo, Copacabana</t>
         </is>
       </c>
     </row>
@@ -5643,19 +5145,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Pacobamba</t>
+          <t>Pacobamba, Mocomoco</t>
         </is>
       </c>
       <c r="D210">
-        <v>-15.4041868</v>
+        <v>-69.07560149999999</v>
       </c>
       <c r="E210">
-        <v>-69.0668081</v>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Municipio Mocomoco, Provincia de Eliodoro Camacho, Bolivia</t>
-        </is>
+        <v>-15.3812694</v>
       </c>
     </row>
     <row r="211">
@@ -5671,19 +5168,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Janko Marca</t>
+          <t>Janko Marca, San Pedro De Curahuara</t>
         </is>
       </c>
       <c r="D211">
-        <v>-17.2927987</v>
+        <v>-67.8704841</v>
       </c>
       <c r="E211">
-        <v>-68.9066917</v>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Municipio Calacoto, Provincia Pacajes, Bolivia</t>
-        </is>
+        <v>-17.6684804</v>
       </c>
     </row>
     <row r="212">
@@ -5699,19 +5191,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Capiñata</t>
+          <t>Capiñata, Inquisivi</t>
         </is>
       </c>
       <c r="D212">
-        <v>-16.9952974</v>
+        <v>-66.983333</v>
       </c>
       <c r="E212">
-        <v>-67.0748466</v>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Municipio Inquisivi, Provincia Inquisivi, Bolivia</t>
-        </is>
+        <v>-17.133333</v>
       </c>
     </row>
     <row r="213">
@@ -5727,19 +5214,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Murmuntani</t>
+          <t>Murmuntani, Luribay</t>
         </is>
       </c>
       <c r="D213">
-        <v>-17.176114</v>
+        <v>-67.660843</v>
       </c>
       <c r="E213">
-        <v>-66.52300150000001</v>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Municipio Morochata, Ayopaya, Bolivia</t>
-        </is>
+        <v>-17.062</v>
       </c>
     </row>
     <row r="214">
@@ -5755,19 +5237,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Umala</t>
+          <t>Umala, Umala</t>
         </is>
       </c>
       <c r="D214">
-        <v>-17.3732926</v>
+        <v>-68.02160859999999</v>
       </c>
       <c r="E214">
-        <v>-68.0207849</v>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Municipio Umala, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-17.3730448</v>
       </c>
     </row>
     <row r="215">
@@ -5783,19 +5260,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>C.s.a. Distrito 8</t>
+          <t>C.s.a. Distrito 8, Achocalla</t>
         </is>
       </c>
       <c r="D215">
-        <v>-17.3659954</v>
+        <v>-68.167953</v>
       </c>
       <c r="E215">
-        <v>-66.2312266</v>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Quillacollo, Bolivia</t>
-        </is>
+        <v>-16.570721</v>
       </c>
     </row>
     <row r="216">
@@ -5811,8 +5283,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Sanka Jahuira</t>
-        </is>
+          <t>Sanka Jahuira, Huatajata</t>
+        </is>
+      </c>
+      <c r="D216">
+        <v>-68.693687</v>
+      </c>
+      <c r="E216">
+        <v>-16.20274</v>
       </c>
     </row>
     <row r="217">
@@ -5828,19 +5306,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Peñas</t>
+          <t>Peñas, Batallas</t>
         </is>
       </c>
       <c r="D217">
-        <v>-18.6908284</v>
+        <v>-68.499634</v>
       </c>
       <c r="E217">
-        <v>-66.7570101</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Municipio Pazña, Provincia Poopó, Bolivia</t>
-        </is>
+        <v>-16.232731</v>
       </c>
     </row>
     <row r="218">
@@ -5856,19 +5329,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Micaya</t>
+          <t>Micaya, Colquencha</t>
         </is>
       </c>
       <c r="D218">
-        <v>-16.950753</v>
+        <v>-68.2221382</v>
       </c>
       <c r="E218">
-        <v>-68.2246423</v>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Municipio Colquencha, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-16.9483054</v>
       </c>
     </row>
     <row r="219">
@@ -5884,19 +5352,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Cohana</t>
+          <t>Cohana, Pucarani</t>
         </is>
       </c>
       <c r="D219">
-        <v>-16.3700412</v>
+        <v>-68.47740899999999</v>
       </c>
       <c r="E219">
-        <v>-68.66019609999999</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Cohana, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.3995412</v>
       </c>
     </row>
     <row r="220">
@@ -5912,8 +5375,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Huanco</t>
-        </is>
+          <t>Huanco, Aucapata</t>
+        </is>
+      </c>
+      <c r="D220">
+        <v>-76.2410843</v>
+      </c>
+      <c r="E220">
+        <v>-9.920764799999999</v>
       </c>
     </row>
     <row r="221">
@@ -5929,19 +5398,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Ancoma</t>
+          <t>Ancoma, Sorata</t>
         </is>
       </c>
       <c r="D221">
-        <v>-19.1181373</v>
+        <v>-68.543953</v>
       </c>
       <c r="E221">
-        <v>-65.6449918</v>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Ancoma, Municipio Tacobamba, Provincia Cornelio Saavedra, Bolivia</t>
-        </is>
+        <v>-15.75923</v>
       </c>
     </row>
     <row r="222">
@@ -5957,19 +5421,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Maria Auxiliadora (Huajara)</t>
+          <t>Maria Auxiliadora (Huajara), Oruro</t>
         </is>
       </c>
       <c r="D222">
-        <v>-17.83628</v>
+        <v>-67.09313779999999</v>
       </c>
       <c r="E222">
-        <v>-63.20072</v>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Maria Auxiliadora, Santa Cruz, Bolivia</t>
-        </is>
+        <v>-17.9716723</v>
       </c>
     </row>
     <row r="223">
@@ -5985,19 +5444,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Villa Iquiaca</t>
+          <t>Villa Iquiaca, Pucarani</t>
         </is>
       </c>
       <c r="D223">
-        <v>-16.4079776</v>
+        <v>-68.54347</v>
       </c>
       <c r="E223">
-        <v>-68.5415639</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Iquiaca Baja (disperso), Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.412784</v>
       </c>
     </row>
     <row r="224">
@@ -6013,18 +5467,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Apolo</t>
-        </is>
-      </c>
-      <c r="D224">
-        <v>-14.720714</v>
-      </c>
-      <c r="E224">
-        <v>-68.42004350000001</v>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Apolo, Provincia Franz Tamayo, Bolivia</t>
+          <t>Apolo, Apolo</t>
         </is>
       </c>
     </row>
@@ -6041,8 +5484,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Chasquipampa E. Saenz</t>
-        </is>
+          <t>Chasquipampa E. Saenz, La Paz</t>
+        </is>
+      </c>
+      <c r="D225">
+        <v>-68.04924130000001</v>
+      </c>
+      <c r="E225">
+        <v>-16.5390492</v>
       </c>
     </row>
     <row r="226">
@@ -6058,19 +5507,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Timusi</t>
+          <t>Timusi, Chuma</t>
         </is>
       </c>
       <c r="D226">
-        <v>-15.6686089</v>
+        <v>-68.91628299999999</v>
       </c>
       <c r="E226">
-        <v>-68.8578943</v>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Municipio Chuma, Provincia Muñecas, Bolivia</t>
-        </is>
+        <v>-15.70843</v>
       </c>
     </row>
     <row r="227">
@@ -6086,19 +5530,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Tambillo</t>
+          <t>Tambillo, Laja</t>
         </is>
       </c>
       <c r="D227">
-        <v>-16.5707978</v>
+        <v>-78.5462098</v>
       </c>
       <c r="E227">
-        <v>-68.50886749999999</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Tambillo, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-0.4066126</v>
       </c>
     </row>
     <row r="228">
@@ -6114,19 +5553,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Tiquina</t>
+          <t>Tiquina, San Pedro De Tiquina</t>
         </is>
       </c>
       <c r="D228">
-        <v>-16.2198075</v>
+        <v>-68.8481743</v>
       </c>
       <c r="E228">
-        <v>-68.8485024</v>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Strait of Tiquina, San Pablo de Tiquina, Provincia Manco Kapac, Bolivia</t>
-        </is>
+        <v>-16.2148009</v>
       </c>
     </row>
     <row r="229">
@@ -6142,19 +5576,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Torrepampa</t>
+          <t>Torrepampa, Cairoma</t>
         </is>
       </c>
       <c r="D229">
-        <v>-16.8312816</v>
+        <v>-67.6185376</v>
       </c>
       <c r="E229">
-        <v>-67.5804923</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Municipio Cairoma, Provincia Loayza, Bolivia</t>
-        </is>
+        <v>-16.9010075</v>
       </c>
     </row>
     <row r="230">
@@ -6170,8 +5599,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Carlos Palenque A. (Tohopoco)</t>
-        </is>
+          <t>Carlos Palenque A. (Tohopoco), Coro Coro</t>
+        </is>
+      </c>
+      <c r="D230">
+        <v>-68.453743</v>
+      </c>
+      <c r="E230">
+        <v>-17.17235</v>
       </c>
     </row>
     <row r="231">
@@ -6187,19 +5622,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Jesus De Machaca</t>
+          <t>Jesus De Machaca, Jesus De Machaca</t>
         </is>
       </c>
       <c r="D231">
-        <v>-16.7441227</v>
+        <v>-68.8068688</v>
       </c>
       <c r="E231">
-        <v>-68.8069654</v>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Municipio Jesús de Machaca, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.7438338</v>
       </c>
     </row>
     <row r="232">
@@ -6215,19 +5645,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>San Luis, La Paz</t>
         </is>
       </c>
       <c r="D232">
-        <v>-11.2037312</v>
+        <v>-68.13494369999999</v>
       </c>
       <c r="E232">
-        <v>-68.5451211</v>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Municipio Porvenir, Nicolás Suárez, Bolivia</t>
-        </is>
+        <v>-16.5129677</v>
       </c>
     </row>
     <row r="233">
@@ -6243,19 +5668,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Coripata</t>
+          <t>Coripata, Coripata</t>
         </is>
       </c>
       <c r="D233">
-        <v>-16.3131836</v>
+        <v>-67.6036362</v>
       </c>
       <c r="E233">
-        <v>-67.6036228</v>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Municipio Coripata, Provincia Nor Yungas, Bolivia</t>
-        </is>
+        <v>-16.3134305</v>
       </c>
     </row>
     <row r="234">
@@ -6271,19 +5691,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Carmen Del Emero</t>
+          <t>Carmen Del Emero, Ixiamas</t>
         </is>
       </c>
       <c r="D234">
-        <v>-13.3839949</v>
+        <v>-68.12525549999999</v>
       </c>
       <c r="E234">
-        <v>-67.3762138</v>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Municipio Ixiamas, Provincia Abel Iturralde, Bolivia</t>
-        </is>
+        <v>-13.7698639</v>
       </c>
     </row>
     <row r="235">
@@ -6299,7 +5714,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Chussi</t>
+          <t>Chussi, Sorata</t>
         </is>
       </c>
     </row>
@@ -6316,19 +5731,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Capacasi</t>
+          <t>Capacasi, Laja</t>
         </is>
       </c>
       <c r="D236">
-        <v>-16.4813421</v>
+        <v>-68.3853115</v>
       </c>
       <c r="E236">
-        <v>-68.31878690000001</v>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Capacasi, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.537319</v>
       </c>
     </row>
     <row r="237">
@@ -6344,19 +5754,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Janko Amaya</t>
+          <t>Janko Amaya, Achacachi</t>
         </is>
       </c>
       <c r="D237">
-        <v>-17.0514955</v>
+        <v>-68.7035738</v>
       </c>
       <c r="E237">
-        <v>-68.457818</v>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Municipio Coro Coro, Provincia Pacajes, Bolivia</t>
-        </is>
+        <v>-16.0285589</v>
       </c>
     </row>
     <row r="238">
@@ -6372,19 +5777,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Hichuraya</t>
+          <t>Hichuraya, Collana</t>
         </is>
       </c>
       <c r="D238">
-        <v>-16.8394688</v>
+        <v>-68.25014809999999</v>
       </c>
       <c r="E238">
-        <v>-68.2319607</v>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Municipio Collana, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-16.8082982</v>
       </c>
     </row>
     <row r="239">
@@ -6400,18 +5800,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Ayata</t>
-        </is>
-      </c>
-      <c r="D239">
-        <v>-15.4594052</v>
-      </c>
-      <c r="E239">
-        <v>-68.8346191</v>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Municipio Ayata, Provincia Muñecas, Bolivia</t>
+          <t>Ayata, Ayata</t>
         </is>
       </c>
     </row>
@@ -6428,19 +5817,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Pusillani</t>
+          <t>Pusillani, Aucapata</t>
         </is>
       </c>
       <c r="D240">
-        <v>-15.458597</v>
+        <v>-68.7311069</v>
       </c>
       <c r="E240">
-        <v>-68.7309253</v>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Municipio Aucapata, Provincia Muñecas, Bolivia</t>
-        </is>
+        <v>-15.4586641</v>
       </c>
     </row>
     <row r="241">
@@ -6456,19 +5840,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Patamanta</t>
+          <t>Patamanta, Pucarani</t>
         </is>
       </c>
       <c r="D241">
-        <v>-16.3773945</v>
+        <v>-68.2</v>
       </c>
       <c r="E241">
-        <v>-68.3785654</v>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Patamanta, Provincia Los Andes, Bolivia</t>
-        </is>
+        <v>-16.233333</v>
       </c>
     </row>
     <row r="242">
@@ -6484,19 +5863,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Sivicani</t>
+          <t>Sivicani, Calamarca</t>
         </is>
       </c>
       <c r="D242">
-        <v>-16.9915254</v>
+        <v>-68.14955259999999</v>
       </c>
       <c r="E242">
-        <v>-68.14965220000001</v>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Municipio Calamarca, Provincia Aroma, Bolivia</t>
-        </is>
+        <v>-16.9917479</v>
       </c>
     </row>
     <row r="243">
@@ -6512,19 +5886,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Antaquilla</t>
+          <t>Antaquilla, Pelechuco</t>
         </is>
       </c>
       <c r="D243">
-        <v>-14.8792201</v>
+        <v>-69.28969669999999</v>
       </c>
       <c r="E243">
-        <v>-69.2879432</v>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Municipio Pelechuco, Provincia Franz Tamayo, Bolivia</t>
-        </is>
+        <v>-14.88239</v>
       </c>
     </row>
     <row r="244">
@@ -6540,18 +5909,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Villa Carmen (Lpz)</t>
-        </is>
-      </c>
-      <c r="D244">
-        <v>-18.08136</v>
-      </c>
-      <c r="E244">
-        <v>-63.44995</v>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Villa Carmen, Santa Cruz, Bolivia</t>
+          <t>Villa Carmen (Lpz), Ayo Ayo</t>
         </is>
       </c>
     </row>
@@ -6568,19 +5926,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Hospital De Rehabilitación Y Salud Mental San Juan De Dios</t>
+          <t>Hospital De Rehabilitación Y Salud Mental San Juan De Dios, La Paz</t>
         </is>
       </c>
       <c r="D245">
-        <v>-19.04044</v>
+        <v>-68.0837422</v>
       </c>
       <c r="E245">
-        <v>-65.27408</v>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>San Juan de Dios, Chuquisaca, Bolivia</t>
-        </is>
+        <v>-16.4978819</v>
       </c>
     </row>
     <row r="246">
@@ -6596,19 +5949,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Tajma</t>
+          <t>Tajma, Chulumani (V. De La Libertad)</t>
         </is>
       </c>
       <c r="D246">
-        <v>-16.3758278</v>
+        <v>-67.466667</v>
       </c>
       <c r="E246">
-        <v>-67.4787346</v>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Municipio Chulumani, Provincia Sud Yungas, Bolivia</t>
-        </is>
+        <v>-16.366667</v>
       </c>
     </row>
     <row r="247">
@@ -6624,19 +5972,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Hospital General De Los Yungas Coroico</t>
+          <t>Hospital General De Los Yungas Coroico, Coroico</t>
         </is>
       </c>
       <c r="D247">
-        <v>-16.19386</v>
+        <v>-67.72639079999999</v>
       </c>
       <c r="E247">
-        <v>-67.72998</v>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Coroico, La Paz, Bolivia</t>
-        </is>
+        <v>-16.1965117</v>
       </c>
     </row>
     <row r="248">
@@ -6652,19 +5995,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Colquiri</t>
+          <t>Colquiri, Colquiri</t>
         </is>
       </c>
       <c r="D248">
-        <v>-17.3918791</v>
+        <v>-67.12688799999999</v>
       </c>
       <c r="E248">
-        <v>-67.12490339999999</v>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Municipio Colquiri, Provincia Inquisivi, Bolivia</t>
-        </is>
+        <v>-17.3855032</v>
       </c>
     </row>
     <row r="249">
@@ -6680,18 +6018,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Collana (Collana)</t>
-        </is>
-      </c>
-      <c r="D249">
-        <v>-14.7111379</v>
-      </c>
-      <c r="E249">
-        <v>-67.2026935</v>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Canton Rurrenabaque, Rurrenabaque, General José Ballivián Segurola, Bolivia</t>
+          <t>Collana (Collana), Collana</t>
         </is>
       </c>
     </row>
@@ -6708,19 +6035,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Villa Florida</t>
+          <t>Villa Florida, Guanay</t>
         </is>
       </c>
       <c r="D250">
-        <v>-17.5561483</v>
+        <v>-81.5157535</v>
       </c>
       <c r="E250">
-        <v>-65.9451924</v>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Cliza, Germán Jordán, Bolivia</t>
-        </is>
+        <v>27.6648274</v>
       </c>
     </row>
     <row r="251">
@@ -6736,8 +6058,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Huaripujo</t>
-        </is>
+          <t>Huaripujo, Santiago De Machaca</t>
+        </is>
+      </c>
+      <c r="D251">
+        <v>-69.0472657</v>
+      </c>
+      <c r="E251">
+        <v>-17.1375714</v>
       </c>
     </row>
     <row r="252">
@@ -6753,19 +6081,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Pillapi</t>
+          <t>Pillapi, Tiahuanacu</t>
         </is>
       </c>
       <c r="D252">
-        <v>-16.5038166</v>
+        <v>-68.67392339999999</v>
       </c>
       <c r="E252">
-        <v>-68.76770329999999</v>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Tiahuanacu, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.555616</v>
       </c>
     </row>
     <row r="253">
@@ -6781,19 +6104,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Vino Tinto</t>
+          <t>Vino Tinto, La Paz</t>
         </is>
       </c>
       <c r="D253">
-        <v>-16.4813922</v>
+        <v>-68.11929359999999</v>
       </c>
       <c r="E253">
-        <v>-68.14027950000001</v>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Periférica, La Paz, Pedro Domingo Murillo, Bolivia</t>
-        </is>
+        <v>-16.489689</v>
       </c>
     </row>
     <row r="254">
@@ -6809,19 +6127,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Porvenir</t>
+          <t>Porvenir, Luribay</t>
         </is>
       </c>
       <c r="D254">
-        <v>-11.23718</v>
+        <v>-67.660843</v>
       </c>
       <c r="E254">
-        <v>-68.6874964</v>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Canton Campo Ana, Municipio Porvenir, Nicolás Suárez, Bolivia</t>
-        </is>
+        <v>-17.062</v>
       </c>
     </row>
     <row r="255">
@@ -6837,19 +6150,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Huacullani</t>
+          <t>Huacullani, Tiahuanacu</t>
         </is>
       </c>
       <c r="D255">
-        <v>-16.4424652</v>
+        <v>-68.67823589999999</v>
       </c>
       <c r="E255">
-        <v>-68.7403169</v>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Tiahuanacu, Ingavi, Bolivia</t>
-        </is>
+        <v>-16.5542097</v>
       </c>
     </row>
     <row r="256">
@@ -6865,19 +6173,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Tembladerani</t>
+          <t>Tembladerani, La Paz</t>
         </is>
       </c>
       <c r="D256">
-        <v>-16.5136334</v>
+        <v>-68.1394152</v>
       </c>
       <c r="E256">
-        <v>-68.1417563</v>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Tembladerani, Avenida Ricardo Jaimes Freyre, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5134566</v>
       </c>
     </row>
     <row r="257">
@@ -6893,19 +6196,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Panticirca</t>
+          <t>Panticirca, La Paz</t>
         </is>
       </c>
       <c r="D257">
-        <v>-16.4470382</v>
+        <v>-68.15941939999999</v>
       </c>
       <c r="E257">
-        <v>-68.154357</v>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Calle Panticirca, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4638406</v>
       </c>
     </row>
     <row r="258">
@@ -6921,8 +6219,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Hospital Boliviano Japones Dr. Roberto Galindo Teran</t>
-        </is>
+          <t>Hospital Boliviano Japones Dr. Roberto Galindo Teran, Cobija</t>
+        </is>
+      </c>
+      <c r="D258">
+        <v>-68.7553102</v>
+      </c>
+      <c r="E258">
+        <v>-11.0181176</v>
       </c>
     </row>
     <row r="259">
@@ -6938,19 +6242,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Hospital del Niño</t>
+          <t>Hospital del Niño, La Paz</t>
         </is>
       </c>
       <c r="D259">
-        <v>-17.3883207</v>
+        <v>-68.11845819999999</v>
       </c>
       <c r="E259">
-        <v>-66.1502709</v>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Hospital del Niño Manuel Ascencio Villarroel, Avenida Oquendo, Cochabamba, Bolivia</t>
-        </is>
+        <v>-16.5085168</v>
       </c>
     </row>
     <row r="260">
@@ -6966,19 +6265,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Hospital de la Mujer</t>
+          <t>Hospital de la Mujer, La Paz</t>
         </is>
       </c>
       <c r="D260">
-        <v>-16.508331</v>
+        <v>-68.1190141</v>
       </c>
       <c r="E260">
-        <v>-68.1186455</v>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Hospital de la Mujer, Avenida Bautista Saavedra, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5083552</v>
       </c>
     </row>
     <row r="261">
@@ -6994,19 +6288,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Hospital de Clinicas</t>
+          <t>Hospital de Clinicas, La Paz</t>
         </is>
       </c>
       <c r="D261">
-        <v>-16.5070353</v>
+        <v>-68.11873469999999</v>
       </c>
       <c r="E261">
-        <v>-68.1186046</v>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Hospital de Clínicas, Avenida Bautista Saavedra, La Paz, Bolivia</t>
-        </is>
+        <v>-16.5075419</v>
       </c>
     </row>
     <row r="262">
@@ -7022,19 +6311,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Hospital Universitario Nuestra Señora  de La Paz</t>
+          <t>Hospital Universitario Nuestra Señora  de La Paz, La Paz</t>
         </is>
       </c>
       <c r="D262">
-        <v>-16.5120069</v>
+        <v>-68.1281671</v>
       </c>
       <c r="E262">
-        <v>-68.1238652</v>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Hospital del Seguro Social Universitario La Paz, Avenida 6 de Agosto 2624, La Paz, Bolivia</t>
-        </is>
+        <v>-16.526631</v>
       </c>
     </row>
     <row r="263">
@@ -7050,19 +6334,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Hospital Juan XXIII</t>
+          <t>Hospital Juan XXIII, La Paz</t>
         </is>
       </c>
       <c r="D263">
-        <v>-16.4874912</v>
+        <v>-68.1574148</v>
       </c>
       <c r="E263">
-        <v>-68.1578198</v>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Hospital Juan XXIII, Calle Calasasaya, La Paz, Bolivia</t>
-        </is>
+        <v>-16.48756</v>
       </c>
     </row>
     <row r="264">
@@ -7078,8 +6357,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Hospital Municipal La Paz</t>
-        </is>
+          <t>Hospital Municipal La Paz, La Paz</t>
+        </is>
+      </c>
+      <c r="D264">
+        <v>-68.14580959999999</v>
+      </c>
+      <c r="E264">
+        <v>-16.495964</v>
       </c>
     </row>
     <row r="265">
@@ -7095,19 +6380,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Hospital General de los Yungas Coroico</t>
+          <t>Hospital General de los Yungas Coroico, Coroico</t>
         </is>
       </c>
       <c r="D265">
-        <v>-16.19386</v>
+        <v>-67.72639079999999</v>
       </c>
       <c r="E265">
-        <v>-67.72998</v>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Coroico, La Paz, Bolivia</t>
-        </is>
+        <v>-16.1965117</v>
       </c>
     </row>
     <row r="266">
@@ -7123,8 +6403,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Hospital Municipal Boliviano Japones</t>
-        </is>
+          <t>Hospital Municipal Boliviano Japones, El Alto</t>
+        </is>
+      </c>
+      <c r="D266">
+        <v>-68.1863967</v>
+      </c>
+      <c r="E266">
+        <v>-16.5858347</v>
       </c>
     </row>
     <row r="267">
@@ -7140,19 +6426,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Hospital San Francisco de Asis</t>
+          <t>Hospital San Francisco de Asis, La Paz</t>
         </is>
       </c>
       <c r="D267">
-        <v>-16.4697073</v>
+        <v>-68.11447489999999</v>
       </c>
       <c r="E267">
-        <v>-68.1144249</v>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Hospital San Francisco de Asis, Calle 1, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4696156</v>
       </c>
     </row>
     <row r="268">
@@ -7168,19 +6449,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Hospital Patacamaya</t>
+          <t>Hospital Patacamaya, Patacamaya</t>
         </is>
       </c>
       <c r="D268">
-        <v>-17.2441445</v>
+        <v>-67.90726959999999</v>
       </c>
       <c r="E268">
-        <v>-67.9072463</v>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Hospital Boliviano Español Patacamaya, Calle Chuquisaca, Patacamaya, Bolivia</t>
-        </is>
+        <v>-17.244035</v>
       </c>
     </row>
     <row r="269">
@@ -7196,19 +6472,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Hospital de Achacachi</t>
+          <t>Hospital de Achacachi, Achacachi</t>
         </is>
       </c>
       <c r="D269">
-        <v>-16.05</v>
+        <v>-68.692712</v>
       </c>
       <c r="E269">
-        <v>-68.68333</v>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Achacachi, La Paz, Bolivia</t>
-        </is>
+        <v>-16.0424057</v>
       </c>
     </row>
     <row r="270">
@@ -7224,19 +6495,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Hospital Chulumani</t>
+          <t>Hospital Chulumani, Chulumani (V. De La Libertad)</t>
         </is>
       </c>
       <c r="D270">
-        <v>-16.40855</v>
+        <v>-67.52764139999999</v>
       </c>
       <c r="E270">
-        <v>-67.5294</v>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Chulumani, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4089164</v>
       </c>
     </row>
     <row r="271">
@@ -7252,19 +6518,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Hospital Agramont</t>
+          <t>Hospital Agramont, El Alto</t>
         </is>
       </c>
       <c r="D271">
-        <v>-16.5153813</v>
+        <v>-68.1581257</v>
       </c>
       <c r="E271">
-        <v>-68.1582361</v>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>HOSPITAL AGRAMONT - Central de Emergencias Nueva Esperanza S.A., Calle 11 Alfredo Jauregui 4035, El Alto, Bolivia</t>
-        </is>
+        <v>-16.5155292</v>
       </c>
     </row>
     <row r="272">
@@ -7280,19 +6541,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Hospital Madre Obrera (Llallagua)</t>
+          <t>Hospital Madre Obrera (Llallagua), Llallagua</t>
         </is>
       </c>
       <c r="D272">
-        <v>-18.4365626</v>
+        <v>-66.56451850000001</v>
       </c>
       <c r="E272">
-        <v>-66.5643932</v>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Hospital Madre Obrera, RN6: Llallagua-Uncia, Llallagua, Bolivia</t>
-        </is>
+        <v>-18.4364017</v>
       </c>
     </row>
     <row r="273">
@@ -7308,19 +6564,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Hospital Daniel Bracamonte</t>
+          <t>Hospital Daniel Bracamonte, Potosi</t>
         </is>
       </c>
       <c r="D273">
-        <v>-19.5835959</v>
+        <v>-65.76576949999999</v>
       </c>
       <c r="E273">
-        <v>-65.765243</v>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Hospital Daniel Bracamonte, Avenida San Bartolomé, Potosí, Bolivia</t>
-        </is>
+        <v>-19.5828285</v>
       </c>
     </row>
     <row r="274">
@@ -7336,19 +6587,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Hospital Materno Infantil Guayaramerin</t>
+          <t>Hospital Materno Infantil Guayaramerin, Guayaramerin</t>
         </is>
       </c>
       <c r="D274">
-        <v>-10.83676</v>
+        <v>-65.3589904</v>
       </c>
       <c r="E274">
-        <v>-65.36136</v>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Guayaramerín, El Beni, Bolivia</t>
-        </is>
+        <v>-10.8219057</v>
       </c>
     </row>
     <row r="275">
@@ -7364,19 +6610,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Hospital Obrero</t>
+          <t>Hospital Obrero, Tupiza</t>
         </is>
       </c>
       <c r="D275">
-        <v>-17.9571974</v>
+        <v>-65.71934419999999</v>
       </c>
       <c r="E275">
-        <v>-67.1127427</v>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Hospital Obrero, Avenida Sargento Flores, Oruro, Bolivia</t>
-        </is>
+        <v>-21.4382195</v>
       </c>
     </row>
     <row r="276">
@@ -7392,19 +6633,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Hospital San Juan de Dios</t>
+          <t>Hospital San Juan de Dios, Challapata</t>
         </is>
       </c>
       <c r="D276">
-        <v>-17.7787899</v>
+        <v>-66.7694877</v>
       </c>
       <c r="E276">
-        <v>-63.1864628</v>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Hospital San Juan de Dios, Calle Santa Bárbara, Santa Cruz de la Sierra, Bolivia</t>
-        </is>
+        <v>-18.9005419</v>
       </c>
     </row>
     <row r="277">
@@ -7420,19 +6656,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Hospital San Juan de Dios Camargo</t>
+          <t>Hospital San Juan de Dios Camargo, Camargo</t>
         </is>
       </c>
       <c r="D277">
-        <v>-20.6411118</v>
+        <v>-65.21321999999999</v>
       </c>
       <c r="E277">
-        <v>-65.21324749999999</v>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Hospital San Juan de Dios, Calle Cobija, Municipio Camargo, Bolivia</t>
-        </is>
+        <v>-20.6411206</v>
       </c>
     </row>
     <row r="278">
@@ -7448,19 +6679,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Hospital Municipal San Buena Ventura</t>
+          <t>Hospital Municipal San Buena Ventura, San Buena Ventura</t>
         </is>
       </c>
       <c r="D278">
-        <v>-14.46667</v>
+        <v>-101.5441455</v>
       </c>
       <c r="E278">
-        <v>-67.58333</v>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>San Buena Ventura, La Paz, Bolivia</t>
-        </is>
+        <v>27.0554305</v>
       </c>
     </row>
     <row r="279">
@@ -7476,19 +6702,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Hospital VIEDMA</t>
+          <t>Hospital VIEDMA, Cochabamba</t>
         </is>
       </c>
       <c r="D279">
-        <v>-17.3886924</v>
+        <v>-66.14862599999999</v>
       </c>
       <c r="E279">
-        <v>-66.14984800000001</v>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Fuente Antiguo Hospital Viedma, Adela Zamudio, Cochabamba, Cercado, Bolivia</t>
-        </is>
+        <v>-17.3855671</v>
       </c>
     </row>
     <row r="280">
@@ -7504,8 +6725,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Hospital Walter Khon</t>
-        </is>
+          <t>Hospital Walter Khon, Oruro</t>
+        </is>
+      </c>
+      <c r="D280">
+        <v>-67.1131711</v>
+      </c>
+      <c r="E280">
+        <v>-17.9868944</v>
       </c>
     </row>
     <row r="281">
@@ -7521,19 +6748,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Hospital San Martin de Porres Huanuni</t>
+          <t>Hospital San Martin de Porres Huanuni, Huanuni</t>
         </is>
       </c>
       <c r="D281">
-        <v>-18.2794027</v>
+        <v>-66.84917140000002</v>
       </c>
       <c r="E281">
-        <v>-66.84922450000001</v>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Hospital San Martin de Porres, Camino a Cataricahua, Huanuni, Bolivia</t>
-        </is>
+        <v>-18.2796339</v>
       </c>
     </row>
     <row r="282">
@@ -7549,8 +6771,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Hospital Escoma</t>
-        </is>
+          <t>Hospital Escoma, Escoma</t>
+        </is>
+      </c>
+      <c r="D282">
+        <v>-69.1283165</v>
+      </c>
+      <c r="E282">
+        <v>-15.6609279</v>
       </c>
     </row>
     <row r="283">
@@ -7566,19 +6794,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Hospital Rurrenabaque</t>
+          <t>Hospital Rurrenabaque, Rurrenabaque</t>
         </is>
       </c>
       <c r="D283">
-        <v>-14.44125</v>
+        <v>-67.52157939999999</v>
       </c>
       <c r="E283">
-        <v>-67.52781</v>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Rurrenabaque, El Beni, Bolivia</t>
-        </is>
+        <v>-14.4385677</v>
       </c>
     </row>
     <row r="284">
@@ -7594,19 +6817,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Hospital Corazon de Jesus</t>
+          <t>Hospital Corazon de Jesus, El Alto</t>
         </is>
       </c>
       <c r="D284">
-        <v>-16.5571182</v>
+        <v>-68.1928951</v>
       </c>
       <c r="E284">
-        <v>-68.192842</v>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Hospital Corazón de Jesús, Calle 3, El Alto, Bolivia</t>
-        </is>
+        <v>-16.5572632</v>
       </c>
     </row>
     <row r="285">
@@ -7622,19 +6840,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Hospital Virgen de Copacabana</t>
+          <t>Hospital Virgen de Copacabana, La Paz</t>
         </is>
       </c>
       <c r="D285">
-        <v>-17.8249772</v>
+        <v>-68.1272584</v>
       </c>
       <c r="E285">
-        <v>-63.1323864</v>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Hospital Virgen Milagrosa Proyecto Hombres Nuevos, Avenida Plan Tres Mil, Santa Cruz de la Sierra, Bolivia</t>
-        </is>
+        <v>-16.5153016</v>
       </c>
     </row>
     <row r="286">
@@ -7650,19 +6863,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Hospital Otorrino Oftalmologico</t>
+          <t>Hospital Otorrino Oftalmologico, La Paz</t>
         </is>
       </c>
       <c r="D286">
-        <v>-16.4936607</v>
+        <v>-68.1440478</v>
       </c>
       <c r="E286">
-        <v>-68.1429809</v>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Hospital Otorrino Oftalmológico, Calle Garcilaso de la Vega, La Paz, Bolivia</t>
-        </is>
+        <v>-16.4936201</v>
       </c>
     </row>
     <row r="287">
@@ -7678,19 +6886,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Hospital Niño Sor Teresa Huarte Tama</t>
+          <t>Hospital Niño Sor Teresa Huarte Tama, Sucre</t>
         </is>
       </c>
       <c r="D287">
-        <v>-19.0082638</v>
+        <v>-65.3074846</v>
       </c>
       <c r="E287">
-        <v>-65.30745520000001</v>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Hospital del Niño Sor Teresa Huarte Tama (3er Nivel), Hacienda Santa Catalina, RN6: Sucre-Oruro, Sucre, Bolivia</t>
-        </is>
+        <v>-19.0082148</v>
       </c>
     </row>
     <row r="288">
@@ -7706,19 +6909,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Hospital del Niño Manuel Ascencio Villarroel</t>
+          <t>Hospital del Niño Manuel Ascencio Villarroel, Cochabamba</t>
         </is>
       </c>
       <c r="D288">
-        <v>-17.3883207</v>
+        <v>-66.1582296</v>
       </c>
       <c r="E288">
-        <v>-66.1502709</v>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Hospital del Niño Manuel Ascencio Villarroel, Avenida Oquendo, Cochabamba, Bolivia</t>
-        </is>
+        <v>-17.3906855</v>
       </c>
     </row>
     <row r="289">
@@ -7734,19 +6932,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Hospital San Roque Potosi</t>
+          <t>Hospital San Roque Potosi, Potosi</t>
         </is>
       </c>
       <c r="D289">
-        <v>-21.71667</v>
+        <v>-65.7500015</v>
       </c>
       <c r="E289">
-        <v>-65.96666999999999</v>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>San Roque, Potosí, Bolivia</t>
-        </is>
+        <v>-19.5779842</v>
       </c>
     </row>
     <row r="290">
@@ -7762,8 +6955,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Hospital Materno Reidum Roine</t>
-        </is>
+          <t>Hospital Materno Reidum Roine, Riberalta</t>
+        </is>
+      </c>
+      <c r="D290">
+        <v>-66.0610358</v>
+      </c>
+      <c r="E290">
+        <v>-11.0013285</v>
       </c>
     </row>
     <row r="291">
@@ -7779,8 +6978,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Hospital J Eduardo Perez</t>
-        </is>
+          <t>Hospital J Eduardo Perez, Uyuni</t>
+        </is>
+      </c>
+      <c r="D291">
+        <v>-66.82606489999999</v>
+      </c>
+      <c r="E291">
+        <v>-20.4603534</v>
       </c>
     </row>
     <row r="292">
@@ -7796,19 +7001,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Hospital San Roque</t>
+          <t>Hospital San Roque, Villazon</t>
         </is>
       </c>
       <c r="D292">
-        <v>-16.5116353</v>
+        <v>-65.59296630000001</v>
       </c>
       <c r="E292">
-        <v>-68.1549301</v>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>Hospital Veterinaria San Roque, Calle Francisco Romero, El Alto, Bolivia</t>
-        </is>
+        <v>-22.0837301</v>
       </c>
     </row>
     <row r="293">
@@ -7824,8 +7024,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Hospital Eduardo Egua</t>
-        </is>
+          <t>Hospital Eduardo Egua, Tupiza</t>
+        </is>
+      </c>
+      <c r="D293">
+        <v>-65.71934419999999</v>
+      </c>
+      <c r="E293">
+        <v>-21.4382195</v>
       </c>
     </row>
     <row r="294">
@@ -7841,19 +7047,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Hospital German Busch</t>
+          <t>Hospital German Busch, Trinidad</t>
         </is>
       </c>
       <c r="D294">
-        <v>-21.54367</v>
+        <v>-64.90190149999999</v>
       </c>
       <c r="E294">
-        <v>-64.73694</v>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>German Busch, Tarija, Bolivia</t>
-        </is>
+        <v>-14.8321487</v>
       </c>
     </row>
     <row r="295">
@@ -7869,19 +7070,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Hospital Villa Tunari</t>
+          <t>Hospital Villa Tunari, Villa Tunari</t>
         </is>
       </c>
       <c r="D295">
-        <v>-17.0210127</v>
+        <v>-65.4606489</v>
       </c>
       <c r="E295">
-        <v>-65.4606019</v>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Hospital de Villa Tunari, Camino Paractito-Itarapampa-El Palmar, Paractito, Bolivia</t>
-        </is>
+        <v>-17.0211273</v>
       </c>
     </row>
     <row r="296">
@@ -7897,8 +7093,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Hospital Doctor Ruben Zelaya</t>
-        </is>
+          <t>Hospital Doctor Ruben Zelaya, Yacuiba</t>
+        </is>
+      </c>
+      <c r="D296">
+        <v>-63.6764319</v>
+      </c>
+      <c r="E296">
+        <v>-22.0052347</v>
       </c>
     </row>
     <row r="297">
@@ -7914,8 +7116,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Hospital Maternológico Germán Urquidi</t>
-        </is>
+          <t>Hospital Maternológico Germán Urquidi, Cochabamba</t>
+        </is>
+      </c>
+      <c r="D297">
+        <v>-66.1483709</v>
+      </c>
+      <c r="E297">
+        <v>-17.3848637</v>
       </c>
     </row>
     <row r="298">
@@ -7931,8 +7139,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Hospital General S.J.D.D.</t>
-        </is>
+          <t>Hospital General S.J.D.D., Oruro</t>
+        </is>
+      </c>
+      <c r="D298">
+        <v>-67.09313779999999</v>
+      </c>
+      <c r="E298">
+        <v>-17.9716723</v>
       </c>
     </row>
     <row r="299">
@@ -7948,19 +7162,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Hospital San Juan de Dios Entre Rios</t>
+          <t>Hospital San Juan de Dios Entre Rios, Entre Rios  Trj</t>
         </is>
       </c>
       <c r="D299">
-        <v>-21.5294792</v>
+        <v>-52.5629619</v>
       </c>
       <c r="E299">
-        <v>-64.1775234</v>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Hospital San Juan de Dios, Calle San Luis, Municipio Entre Rios, Bolivia</t>
-        </is>
+        <v>-26.7235463</v>
       </c>
     </row>
     <row r="300">
@@ -7976,19 +7185,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Hospital DE Rehabilitación y Salud Mental San Juan de Dios</t>
+          <t>Hospital DE Rehabilitación y Salud Mental San Juan de Dios, La Paz</t>
         </is>
       </c>
       <c r="D300">
-        <v>-19.04044</v>
+        <v>-68.0837422</v>
       </c>
       <c r="E300">
-        <v>-65.27408</v>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>San Juan de Dios, Chuquisaca, Bolivia</t>
-        </is>
+        <v>-16.4978819</v>
       </c>
     </row>
     <row r="301">
@@ -8004,8 +7208,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Hospital Municipal Dr. Jose Eduardo Olmos Maeda</t>
-        </is>
+          <t>Hospital Municipal Dr. Jose Eduardo Olmos Maeda, San Borja</t>
+        </is>
+      </c>
+      <c r="D301">
+        <v>-66.74810289999999</v>
+      </c>
+      <c r="E301">
+        <v>-14.8507679</v>
       </c>
     </row>
     <row r="302">
@@ -8021,19 +7231,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Hospital Municipal Frances</t>
+          <t>Hospital Municipal Frances, Santa Cruz De La Sierra</t>
         </is>
       </c>
       <c r="D302">
-        <v>-17.8546649</v>
+        <v>-63.189736</v>
       </c>
       <c r="E302">
-        <v>-63.1897392</v>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>Hospital Municipal Francés, Calle Tiluchi, Santa Cruz de la Sierra, Bolivia</t>
-        </is>
+        <v>-17.8546319</v>
       </c>
     </row>
     <row r="303">
@@ -8049,8 +7254,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Hospital Clinica Maria de los Angeles</t>
-        </is>
+          <t>Hospital Clinica Maria de los Angeles, La Paz</t>
+        </is>
+      </c>
+      <c r="D303">
+        <v>-118.2042633</v>
+      </c>
+      <c r="E303">
+        <v>33.9626782</v>
       </c>
     </row>
     <row r="304">
@@ -8066,19 +7277,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Hospital Militar COSSMIL</t>
+          <t>Hospital Militar COSSMIL, La Paz</t>
         </is>
       </c>
       <c r="D304">
-        <v>-17.3790275</v>
+        <v>-68.12027259999999</v>
       </c>
       <c r="E304">
-        <v>-66.14494139999999</v>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Hospital Corporación de Seguro Social Militar 1, Avenida Ramón Rivero, Cochabamba, Bolivia</t>
-        </is>
+        <v>-16.5051196</v>
       </c>
     </row>
     <row r="305">
@@ -8094,8 +7300,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Hospital Republica Islamica de Iran</t>
-        </is>
+          <t>Hospital Republica Islamica de Iran, El Alto</t>
+        </is>
+      </c>
+      <c r="D305">
+        <v>-68.2081896</v>
+      </c>
+      <c r="E305">
+        <v>-16.4899474</v>
       </c>
     </row>
     <row r="306">
@@ -8111,19 +7323,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Hospital Cochabamba</t>
+          <t>Hospital Cochabamba, Cochabamba</t>
         </is>
       </c>
       <c r="D306">
-        <v>-17.4003791</v>
+        <v>-66.1560618</v>
       </c>
       <c r="E306">
-        <v>-66.155936</v>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Hospital Cochabamba, Calle Ismael Montes, Cochabamba, Bolivia</t>
-        </is>
+        <v>-17.4005797</v>
       </c>
     </row>
     <row r="307">
@@ -8139,18 +7346,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Hospital Vinto</t>
-        </is>
-      </c>
-      <c r="D307">
-        <v>-17.3971209</v>
-      </c>
-      <c r="E307">
-        <v>-66.3186084</v>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Hospital Municipal Vinto, Calle Cochabamba, Sauce Rancho, Bolivia</t>
+          <t>Hospital Vinto, Vinto</t>
         </is>
       </c>
     </row>
@@ -8167,19 +7363,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Hospital Santa Barbara</t>
+          <t>Hospital Santa Barbara, Sucre</t>
         </is>
       </c>
       <c r="D308">
-        <v>-19.0447735</v>
+        <v>-65.26375569999999</v>
       </c>
       <c r="E308">
-        <v>-65.26354910000001</v>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>Hospital de Santa Bárbara, Calle Ayacucho, Sucre, Bolivia</t>
-        </is>
+        <v>-19.0444672</v>
       </c>
     </row>
     <row r="309">
@@ -8195,19 +7386,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Hospital Mexico Sacaba</t>
+          <t>Hospital Mexico Sacaba, Sacaba</t>
         </is>
       </c>
       <c r="D309">
-        <v>-17.4003338</v>
+        <v>-66.03518129999999</v>
       </c>
       <c r="E309">
-        <v>-66.0348043</v>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Hospital México, Calle José Manuel Pando, Sacaba, Bolivia</t>
-        </is>
+        <v>-17.4007851</v>
       </c>
     </row>
     <row r="310">
@@ -8223,8 +7409,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Hospital COVID-19 Dr. Hernan Messuti Rivera</t>
-        </is>
+          <t>Hospital COVID-19 Dr. Hernan Messuti Rivera, Cobija</t>
+        </is>
+      </c>
+      <c r="D310">
+        <v>-68.7553102</v>
+      </c>
+      <c r="E310">
+        <v>-11.0181176</v>
       </c>
     </row>
     <row r="311">
@@ -8240,19 +7432,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Hospital Totora</t>
+          <t>Hospital Totora, Totora(Cbba)</t>
         </is>
       </c>
       <c r="D311">
-        <v>-18.49587</v>
+        <v>-65.1922148</v>
       </c>
       <c r="E311">
-        <v>-66.8738</v>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Totoral, Oruro, Bolivia</t>
-        </is>
+        <v>-17.7357805</v>
       </c>
     </row>
     <row r="312">
@@ -8268,8 +7455,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Hospital Luis Alberto Navarro Rodriguez</t>
-        </is>
+          <t>Hospital Luis Alberto Navarro Rodriguez, Guayaramerin</t>
+        </is>
+      </c>
+      <c r="D312">
+        <v>-65.36883349999999</v>
+      </c>
+      <c r="E312">
+        <v>-10.8237579</v>
       </c>
     </row>
     <row r="313">
@@ -8285,19 +7478,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Hospital Alfonso Gumucio</t>
+          <t>Hospital Alfonso Gumucio, Montero</t>
         </is>
       </c>
       <c r="D313">
-        <v>-17.340684</v>
+        <v>-63.2511719</v>
       </c>
       <c r="E313">
-        <v>-63.2512824</v>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Hospital General - Hospital Municipal Alfonso Gumucio R., Calle Avaroa, Montero, Bolivia</t>
-        </is>
+        <v>-17.3408875</v>
       </c>
     </row>
     <row r="314">
@@ -8313,19 +7501,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Hospital de Tercer Nivel de Montero</t>
+          <t>Hospital de Tercer Nivel de Montero, Santa Cruz De La Sierra</t>
         </is>
       </c>
       <c r="D314">
-        <v>-17.33866</v>
+        <v>-63.1925079</v>
       </c>
       <c r="E314">
-        <v>-63.2505</v>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Montero, Santa Cruz, Bolivia</t>
-        </is>
+        <v>-17.798072</v>
       </c>
     </row>
   </sheetData>
